--- a/Баллы 2019.xlsx
+++ b/Баллы 2019.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Leon\NSTU\Проектирование систем\Student 2019\trunk\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="90" windowWidth="14880" windowHeight="7875"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -805,7 +800,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -840,7 +835,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1055,7 +1050,7 @@
       <pane xSplit="2" ySplit="23" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23:E23"/>
+      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1184,7 +1179,9 @@
       <c r="A2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="22">
+        <v>1</v>
+      </c>
       <c r="C2" s="26">
         <v>1</v>
       </c>
@@ -1241,7 +1238,9 @@
       <c r="A3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="22">
+        <v>2</v>
+      </c>
       <c r="C3" s="21">
         <v>1</v>
       </c>
@@ -1298,7 +1297,9 @@
       <c r="A4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="22"/>
+      <c r="B4" s="22">
+        <v>3</v>
+      </c>
       <c r="C4" s="21">
         <v>1</v>
       </c>
@@ -1355,7 +1356,9 @@
       <c r="A5" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="22"/>
+      <c r="B5" s="22">
+        <v>4</v>
+      </c>
       <c r="C5" s="21">
         <v>1</v>
       </c>
@@ -1412,7 +1415,9 @@
       <c r="A6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="22">
+        <v>5</v>
+      </c>
       <c r="C6" s="21">
         <v>1</v>
       </c>
@@ -1469,7 +1474,9 @@
       <c r="A7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="22"/>
+      <c r="B7" s="22">
+        <v>6</v>
+      </c>
       <c r="C7" s="21">
         <v>1</v>
       </c>
@@ -1526,7 +1533,9 @@
       <c r="A8" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="22"/>
+      <c r="B8" s="22">
+        <v>7</v>
+      </c>
       <c r="C8" s="21">
         <v>1</v>
       </c>
@@ -1583,7 +1592,9 @@
       <c r="A9" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="22">
+        <v>8</v>
+      </c>
       <c r="C9" s="21">
         <v>1</v>
       </c>
@@ -1640,7 +1651,9 @@
       <c r="A10" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="22"/>
+      <c r="B10" s="22">
+        <v>9</v>
+      </c>
       <c r="C10" s="21">
         <v>1</v>
       </c>
@@ -1697,7 +1710,9 @@
       <c r="A11" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="22">
+        <v>10</v>
+      </c>
       <c r="C11" s="21">
         <v>1</v>
       </c>
@@ -1754,7 +1769,9 @@
       <c r="A12" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="37"/>
+      <c r="B12" s="37">
+        <v>1</v>
+      </c>
       <c r="C12" s="38">
         <v>1</v>
       </c>
@@ -1811,7 +1828,9 @@
       <c r="A13" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="22"/>
+      <c r="B13" s="22">
+        <v>2</v>
+      </c>
       <c r="C13" s="21">
         <v>1</v>
       </c>
@@ -1868,7 +1887,9 @@
       <c r="A14" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="22"/>
+      <c r="B14" s="22">
+        <v>3</v>
+      </c>
       <c r="C14" s="21">
         <v>1</v>
       </c>
@@ -1925,7 +1946,9 @@
       <c r="A15" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="22"/>
+      <c r="B15" s="22">
+        <v>4</v>
+      </c>
       <c r="C15" s="21">
         <v>1</v>
       </c>
@@ -1982,7 +2005,9 @@
       <c r="A16" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="22"/>
+      <c r="B16" s="22">
+        <v>5</v>
+      </c>
       <c r="C16" s="21">
         <v>1</v>
       </c>
@@ -2039,7 +2064,9 @@
       <c r="A17" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="22"/>
+      <c r="B17" s="22">
+        <v>6</v>
+      </c>
       <c r="C17" s="21">
         <v>1</v>
       </c>
@@ -2096,7 +2123,9 @@
       <c r="A18" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="22"/>
+      <c r="B18" s="22">
+        <v>7</v>
+      </c>
       <c r="C18" s="21">
         <v>1</v>
       </c>
@@ -2153,7 +2182,9 @@
       <c r="A19" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="22"/>
+      <c r="B19" s="22">
+        <v>8</v>
+      </c>
       <c r="C19" s="21">
         <v>1</v>
       </c>
@@ -2210,7 +2241,9 @@
       <c r="A20" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="22"/>
+      <c r="B20" s="22">
+        <v>9</v>
+      </c>
       <c r="C20" s="21">
         <v>1</v>
       </c>
@@ -2267,7 +2300,9 @@
       <c r="A21" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="22"/>
+      <c r="B21" s="22">
+        <v>10</v>
+      </c>
       <c r="C21" s="21">
         <v>1</v>
       </c>
@@ -2324,7 +2359,9 @@
       <c r="A22" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="43"/>
+      <c r="B22" s="43">
+        <v>11</v>
+      </c>
       <c r="C22" s="44">
         <v>1</v>
       </c>
@@ -2815,7 +2852,7 @@
       <c r="AB36" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9A9dnMVh7YbDUBVqzfI3u+pKThG9tnBVXgAgNf9QqVWouAPcGReh575eyUMCAZJHyNANQ8dcCgDIwcBGcr933Q==" saltValue="RNXJxmLoOcIXa8N+Wv9rzA==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
+  <sheetProtection password="9DFC" sheet="1" objects="1" scenarios="1" sort="0"/>
   <sortState ref="A2:A22">
     <sortCondition ref="A2"/>
   </sortState>

--- a/Баллы 2019.xlsx
+++ b/Баллы 2019.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Leon\NSTU\Проектирование систем\Student 2019\trunk\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="90" windowWidth="14880" windowHeight="7875"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -546,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -710,6 +715,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -800,7 +811,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -835,7 +846,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1050,7 +1061,7 @@
       <pane xSplit="2" ySplit="23" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomRight" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1194,9 +1205,13 @@
       <c r="F2" s="3">
         <v>1</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
       <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="I2" s="3">
+        <v>8</v>
+      </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -1216,7 +1231,7 @@
       <c r="Z2" s="24"/>
       <c r="AA2" s="27">
         <f t="shared" ref="AA2:AA7" si="0">SUM(C2:Z2)</f>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AB2" s="27">
         <v>85</v>
@@ -1253,9 +1268,15 @@
       <c r="F3" s="3">
         <v>1</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>8</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -1275,7 +1296,7 @@
       <c r="Z3" s="24"/>
       <c r="AA3" s="6">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AB3" s="6">
         <v>85</v>
@@ -1312,9 +1333,13 @@
       <c r="F4" s="3">
         <v>0</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
       <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -1371,9 +1396,13 @@
       <c r="F5" s="3">
         <v>1</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
       <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="I5" s="60">
+        <v>4</v>
+      </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -1393,7 +1422,7 @@
       <c r="Z5" s="24"/>
       <c r="AA5" s="6">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AB5" s="6">
         <v>85</v>
@@ -1430,9 +1459,13 @@
       <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
       <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="I6" s="3">
+        <v>6</v>
+      </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -1452,7 +1485,7 @@
       <c r="Z6" s="24"/>
       <c r="AA6" s="6">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AB6" s="6">
         <v>85</v>
@@ -1489,9 +1522,13 @@
       <c r="F7" s="3">
         <v>0</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
       <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -1548,9 +1585,13 @@
       <c r="F8" s="3">
         <v>1</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
       <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -1570,7 +1611,7 @@
       <c r="Z8" s="24"/>
       <c r="AA8" s="6">
         <f t="shared" ref="AA8:AA19" si="7">SUM(C8:Z8)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB8" s="6">
         <v>85</v>
@@ -1607,9 +1648,13 @@
       <c r="F9" s="3">
         <v>1</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
       <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="I9" s="60">
+        <v>4</v>
+      </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -1629,7 +1674,7 @@
       <c r="Z9" s="24"/>
       <c r="AA9" s="6">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AB9" s="6">
         <v>85</v>
@@ -1666,9 +1711,13 @@
       <c r="F10" s="3">
         <v>1</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
       <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -1688,7 +1737,7 @@
       <c r="Z10" s="24"/>
       <c r="AA10" s="6">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB10" s="6">
         <v>85</v>
@@ -1725,9 +1774,13 @@
       <c r="F11" s="3">
         <v>0</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -1747,7 +1800,7 @@
       <c r="Z11" s="24"/>
       <c r="AA11" s="35">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB11" s="35">
         <v>85</v>
@@ -1784,9 +1837,13 @@
       <c r="F12" s="39">
         <v>1</v>
       </c>
-      <c r="G12" s="39"/>
+      <c r="G12" s="39">
+        <v>1</v>
+      </c>
       <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
+      <c r="I12" s="39">
+        <v>8</v>
+      </c>
       <c r="J12" s="39"/>
       <c r="K12" s="39"/>
       <c r="L12" s="39"/>
@@ -1806,7 +1863,7 @@
       <c r="Z12" s="40"/>
       <c r="AA12" s="6">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AB12" s="6">
         <v>85</v>
@@ -1843,9 +1900,13 @@
       <c r="F13" s="3">
         <v>1</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="I13" s="60">
+        <v>6</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -1865,7 +1926,7 @@
       <c r="Z13" s="24"/>
       <c r="AA13" s="6">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AB13" s="6">
         <v>85</v>
@@ -1902,9 +1963,13 @@
       <c r="F14" s="3">
         <v>1</v>
       </c>
-      <c r="G14" s="3"/>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
       <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="I14" s="3">
+        <v>8</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -1924,7 +1989,7 @@
       <c r="Z14" s="24"/>
       <c r="AA14" s="6">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AB14" s="6">
         <v>85</v>
@@ -1961,9 +2026,13 @@
       <c r="F15" s="3">
         <v>1</v>
       </c>
-      <c r="G15" s="3"/>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
       <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -1983,7 +2052,7 @@
       <c r="Z15" s="24"/>
       <c r="AA15" s="6">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB15" s="6">
         <v>85</v>
@@ -2020,9 +2089,13 @@
       <c r="F16" s="3">
         <v>1</v>
       </c>
-      <c r="G16" s="3"/>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
       <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="I16" s="3">
+        <v>8</v>
+      </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -2042,7 +2115,7 @@
       <c r="Z16" s="24"/>
       <c r="AA16" s="6">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AB16" s="6">
         <v>85</v>
@@ -2079,9 +2152,13 @@
       <c r="F17" s="3">
         <v>1</v>
       </c>
-      <c r="G17" s="3"/>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
       <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="I17" s="60">
+        <v>6</v>
+      </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -2101,7 +2178,7 @@
       <c r="Z17" s="24"/>
       <c r="AA17" s="6">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AB17" s="6">
         <v>85</v>
@@ -2138,9 +2215,13 @@
       <c r="F18" s="3">
         <v>1</v>
       </c>
-      <c r="G18" s="3"/>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
       <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="I18" s="3">
+        <v>8</v>
+      </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -2160,7 +2241,7 @@
       <c r="Z18" s="24"/>
       <c r="AA18" s="6">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AB18" s="6">
         <v>85</v>
@@ -2192,14 +2273,18 @@
         <v>1</v>
       </c>
       <c r="E19" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F19" s="3">
         <v>1</v>
       </c>
-      <c r="G19" s="3"/>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
       <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="I19" s="3">
+        <v>8</v>
+      </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -2219,7 +2304,7 @@
       <c r="Z19" s="24"/>
       <c r="AA19" s="6">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AB19" s="6">
         <v>85</v>
@@ -2256,9 +2341,13 @@
       <c r="F20" s="3">
         <v>1</v>
       </c>
-      <c r="G20" s="3"/>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
       <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="I20" s="60">
+        <v>6</v>
+      </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -2278,7 +2367,7 @@
       <c r="Z20" s="24"/>
       <c r="AA20" s="6">
         <f t="shared" ref="AA20:AA22" si="15">SUM(C20:Z20)</f>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AB20" s="6">
         <v>85</v>
@@ -2315,9 +2404,13 @@
       <c r="F21" s="3">
         <v>0</v>
       </c>
-      <c r="G21" s="3"/>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
       <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="I21" s="60">
+        <v>0</v>
+      </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -2374,9 +2467,13 @@
       <c r="F22" s="45">
         <v>1</v>
       </c>
-      <c r="G22" s="45"/>
+      <c r="G22" s="45">
+        <v>1</v>
+      </c>
       <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
+      <c r="I22" s="61">
+        <v>6</v>
+      </c>
       <c r="J22" s="45"/>
       <c r="K22" s="45"/>
       <c r="L22" s="45"/>
@@ -2396,7 +2493,7 @@
       <c r="Z22" s="46"/>
       <c r="AA22" s="6">
         <f t="shared" si="15"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AB22" s="6">
         <v>85</v>
@@ -2852,7 +2949,7 @@
       <c r="AB36" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection password="9DFC" sheet="1" objects="1" scenarios="1" sort="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="EEL2r9njA8KTGxhLnCGvzQhnjym89fQiPv3PicZAwXtRf6d/YasizTvFpB+QyMHj7koe+ZHRJGwWBsOj41ZH/w==" saltValue="W3fDvk6a3MHwYaVzsYS5aw==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
   <sortState ref="A2:A22">
     <sortCondition ref="A2"/>
   </sortState>

--- a/Баллы 2019.xlsx
+++ b/Баллы 2019.xlsx
@@ -551,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -683,6 +683,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -715,12 +718,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1061,7 +1058,7 @@
       <pane xSplit="2" ySplit="23" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I25" sqref="I25"/>
+      <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1208,7 +1205,9 @@
       <c r="G2" s="3">
         <v>1</v>
       </c>
-      <c r="H2" s="3"/>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
       <c r="I2" s="3">
         <v>8</v>
       </c>
@@ -1231,7 +1230,7 @@
       <c r="Z2" s="24"/>
       <c r="AA2" s="27">
         <f t="shared" ref="AA2:AA7" si="0">SUM(C2:Z2)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AB2" s="27">
         <v>85</v>
@@ -1336,7 +1335,9 @@
       <c r="G4" s="3">
         <v>0</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
       <c r="I4" s="3">
         <v>0</v>
       </c>
@@ -1399,9 +1400,11 @@
       <c r="G5" s="3">
         <v>0</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="60">
-        <v>4</v>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>7</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -1422,7 +1425,7 @@
       <c r="Z5" s="24"/>
       <c r="AA5" s="6">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AB5" s="6">
         <v>85</v>
@@ -1462,8 +1465,10 @@
       <c r="G6" s="3">
         <v>1</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3">
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="49">
         <v>6</v>
       </c>
       <c r="J6" s="3"/>
@@ -1485,7 +1490,7 @@
       <c r="Z6" s="24"/>
       <c r="AA6" s="6">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AB6" s="6">
         <v>85</v>
@@ -1525,7 +1530,9 @@
       <c r="G7" s="3">
         <v>0</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
       <c r="I7" s="3">
         <v>0</v>
       </c>
@@ -1588,9 +1595,11 @@
       <c r="G8" s="3">
         <v>1</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -1611,7 +1620,7 @@
       <c r="Z8" s="24"/>
       <c r="AA8" s="6">
         <f t="shared" ref="AA8:AA19" si="7">SUM(C8:Z8)</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="AB8" s="6">
         <v>85</v>
@@ -1651,8 +1660,10 @@
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="60">
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="49">
         <v>4</v>
       </c>
       <c r="J9" s="3"/>
@@ -1714,9 +1725,11 @@
       <c r="G10" s="3">
         <v>1</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3">
-        <v>0</v>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="49">
+        <v>4</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -1737,7 +1750,7 @@
       <c r="Z10" s="24"/>
       <c r="AA10" s="6">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AB10" s="6">
         <v>85</v>
@@ -1777,7 +1790,9 @@
       <c r="G11" s="3">
         <v>1</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
       <c r="I11" s="3">
         <v>0</v>
       </c>
@@ -1840,7 +1855,9 @@
       <c r="G12" s="39">
         <v>1</v>
       </c>
-      <c r="H12" s="39"/>
+      <c r="H12" s="39">
+        <v>1</v>
+      </c>
       <c r="I12" s="39">
         <v>8</v>
       </c>
@@ -1863,7 +1880,7 @@
       <c r="Z12" s="40"/>
       <c r="AA12" s="6">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AB12" s="6">
         <v>85</v>
@@ -1903,9 +1920,11 @@
       <c r="G13" s="3">
         <v>1</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="60">
-        <v>6</v>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
+        <v>8</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -1926,7 +1945,7 @@
       <c r="Z13" s="24"/>
       <c r="AA13" s="6">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AB13" s="6">
         <v>85</v>
@@ -1966,7 +1985,9 @@
       <c r="G14" s="3">
         <v>1</v>
       </c>
-      <c r="H14" s="3"/>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
       <c r="I14" s="3">
         <v>8</v>
       </c>
@@ -1989,7 +2010,7 @@
       <c r="Z14" s="24"/>
       <c r="AA14" s="6">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AB14" s="6">
         <v>85</v>
@@ -2029,9 +2050,11 @@
       <c r="G15" s="3">
         <v>1</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3">
-        <v>0</v>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="49">
+        <v>4</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -2052,7 +2075,7 @@
       <c r="Z15" s="24"/>
       <c r="AA15" s="6">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AB15" s="6">
         <v>85</v>
@@ -2092,7 +2115,9 @@
       <c r="G16" s="3">
         <v>1</v>
       </c>
-      <c r="H16" s="3"/>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
       <c r="I16" s="3">
         <v>8</v>
       </c>
@@ -2115,7 +2140,7 @@
       <c r="Z16" s="24"/>
       <c r="AA16" s="6">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AB16" s="6">
         <v>85</v>
@@ -2155,9 +2180,11 @@
       <c r="G17" s="3">
         <v>1</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="60">
-        <v>6</v>
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3">
+        <v>8</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -2178,7 +2205,7 @@
       <c r="Z17" s="24"/>
       <c r="AA17" s="6">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AB17" s="6">
         <v>85</v>
@@ -2218,7 +2245,9 @@
       <c r="G18" s="3">
         <v>1</v>
       </c>
-      <c r="H18" s="3"/>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
       <c r="I18" s="3">
         <v>8</v>
       </c>
@@ -2241,7 +2270,7 @@
       <c r="Z18" s="24"/>
       <c r="AA18" s="6">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AB18" s="6">
         <v>85</v>
@@ -2281,7 +2310,9 @@
       <c r="G19" s="3">
         <v>1</v>
       </c>
-      <c r="H19" s="3"/>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
       <c r="I19" s="3">
         <v>8</v>
       </c>
@@ -2344,9 +2375,11 @@
       <c r="G20" s="3">
         <v>1</v>
       </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="60">
-        <v>6</v>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3">
+        <v>8</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -2367,7 +2400,7 @@
       <c r="Z20" s="24"/>
       <c r="AA20" s="6">
         <f t="shared" ref="AA20:AA22" si="15">SUM(C20:Z20)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AB20" s="6">
         <v>85</v>
@@ -2399,7 +2432,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -2407,9 +2440,11 @@
       <c r="G21" s="3">
         <v>0</v>
       </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="60">
-        <v>0</v>
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3">
+        <v>8</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -2430,7 +2465,7 @@
       <c r="Z21" s="24"/>
       <c r="AA21" s="6">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AB21" s="6">
         <v>85</v>
@@ -2470,9 +2505,11 @@
       <c r="G22" s="45">
         <v>1</v>
       </c>
-      <c r="H22" s="45"/>
-      <c r="I22" s="61">
-        <v>6</v>
+      <c r="H22" s="45">
+        <v>0</v>
+      </c>
+      <c r="I22" s="45">
+        <v>8</v>
       </c>
       <c r="J22" s="45"/>
       <c r="K22" s="45"/>
@@ -2493,7 +2530,7 @@
       <c r="Z22" s="46"/>
       <c r="AA22" s="6">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB22" s="6">
         <v>85</v>
@@ -2514,44 +2551,44 @@
     <row r="23" spans="1:31" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
       <c r="B23" s="23"/>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="52"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="54" t="s">
+      <c r="D23" s="53"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="51" t="s">
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="56" t="s">
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="O23" s="57"/>
-      <c r="P23" s="57"/>
-      <c r="Q23" s="57"/>
-      <c r="R23" s="59"/>
-      <c r="S23" s="56" t="s">
+      <c r="O23" s="58"/>
+      <c r="P23" s="58"/>
+      <c r="Q23" s="58"/>
+      <c r="R23" s="60"/>
+      <c r="S23" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="T23" s="57"/>
-      <c r="U23" s="59"/>
-      <c r="V23" s="56" t="s">
+      <c r="T23" s="58"/>
+      <c r="U23" s="60"/>
+      <c r="V23" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="W23" s="57"/>
-      <c r="X23" s="58"/>
-      <c r="Y23" s="49" t="s">
+      <c r="W23" s="58"/>
+      <c r="X23" s="59"/>
+      <c r="Y23" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="Z23" s="50"/>
+      <c r="Z23" s="51"/>
       <c r="AA23" s="6"/>
       <c r="AB23" s="5"/>
       <c r="AC23" s="7"/>
@@ -2949,7 +2986,7 @@
       <c r="AB36" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EEL2r9njA8KTGxhLnCGvzQhnjym89fQiPv3PicZAwXtRf6d/YasizTvFpB+QyMHj7koe+ZHRJGwWBsOj41ZH/w==" saltValue="W3fDvk6a3MHwYaVzsYS5aw==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="TVgpDA4FE0ZI8RFLm+98lnJ1dgSyR9rCe7hrw+nQnn9zhRH8u9VFRlDT7yvvpoxF2r1abU9XOqDvWbqd8GG8Eg==" saltValue="kdKRkPWmOQtePkcM43bN6g==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
   <sortState ref="A2:A22">
     <sortCondition ref="A2"/>
   </sortState>

--- a/Баллы 2019.xlsx
+++ b/Баллы 2019.xlsx
@@ -551,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -718,6 +718,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1055,10 +1062,10 @@
   <dimension ref="A1:AE36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="23" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="23" topLeftCell="F24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
+      <selection pane="bottomRight" activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,10 +1218,14 @@
       <c r="I2" s="3">
         <v>8</v>
       </c>
-      <c r="J2" s="3"/>
+      <c r="J2" s="3">
+        <v>1</v>
+      </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
+      <c r="M2" s="3">
+        <v>11</v>
+      </c>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -1230,7 +1241,7 @@
       <c r="Z2" s="24"/>
       <c r="AA2" s="27">
         <f t="shared" ref="AA2:AA7" si="0">SUM(C2:Z2)</f>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="AB2" s="27">
         <v>85</v>
@@ -1276,7 +1287,9 @@
       <c r="I3" s="3">
         <v>8</v>
       </c>
-      <c r="J3" s="3"/>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -1341,7 +1354,9 @@
       <c r="I4" s="3">
         <v>0</v>
       </c>
-      <c r="J4" s="3"/>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -1406,7 +1421,9 @@
       <c r="I5" s="3">
         <v>7</v>
       </c>
-      <c r="J5" s="3"/>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -1425,7 +1442,7 @@
       <c r="Z5" s="24"/>
       <c r="AA5" s="6">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AB5" s="6">
         <v>85</v>
@@ -1468,10 +1485,12 @@
       <c r="H6" s="3">
         <v>1</v>
       </c>
-      <c r="I6" s="49">
-        <v>6</v>
-      </c>
-      <c r="J6" s="3"/>
+      <c r="I6" s="3">
+        <v>7</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -1490,7 +1509,7 @@
       <c r="Z6" s="24"/>
       <c r="AA6" s="6">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AB6" s="6">
         <v>85</v>
@@ -1536,7 +1555,9 @@
       <c r="I7" s="3">
         <v>0</v>
       </c>
-      <c r="J7" s="3"/>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -1601,7 +1622,9 @@
       <c r="I8" s="3">
         <v>8</v>
       </c>
-      <c r="J8" s="3"/>
+      <c r="J8" s="3">
+        <v>1</v>
+      </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -1620,7 +1643,7 @@
       <c r="Z8" s="24"/>
       <c r="AA8" s="6">
         <f t="shared" ref="AA8:AA19" si="7">SUM(C8:Z8)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AB8" s="6">
         <v>85</v>
@@ -1663,10 +1686,12 @@
       <c r="H9" s="3">
         <v>0</v>
       </c>
-      <c r="I9" s="49">
-        <v>4</v>
-      </c>
-      <c r="J9" s="3"/>
+      <c r="I9" s="3">
+        <v>8</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -1685,7 +1710,7 @@
       <c r="Z9" s="24"/>
       <c r="AA9" s="6">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AB9" s="6">
         <v>85</v>
@@ -1731,7 +1756,9 @@
       <c r="I10" s="49">
         <v>4</v>
       </c>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -1750,7 +1777,7 @@
       <c r="Z10" s="24"/>
       <c r="AA10" s="6">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB10" s="6">
         <v>85</v>
@@ -1769,7 +1796,7 @@
       </c>
     </row>
     <row r="11" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="61" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="22">
@@ -1796,7 +1823,9 @@
       <c r="I11" s="3">
         <v>0</v>
       </c>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -1861,10 +1890,14 @@
       <c r="I12" s="39">
         <v>8</v>
       </c>
-      <c r="J12" s="39"/>
+      <c r="J12" s="39">
+        <v>1</v>
+      </c>
       <c r="K12" s="39"/>
       <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
+      <c r="M12" s="62">
+        <v>4</v>
+      </c>
       <c r="N12" s="39"/>
       <c r="O12" s="39"/>
       <c r="P12" s="39"/>
@@ -1880,7 +1913,7 @@
       <c r="Z12" s="40"/>
       <c r="AA12" s="6">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AB12" s="6">
         <v>85</v>
@@ -1926,10 +1959,14 @@
       <c r="I13" s="3">
         <v>8</v>
       </c>
-      <c r="J13" s="3"/>
+      <c r="J13" s="3">
+        <v>1</v>
+      </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+      <c r="M13" s="3">
+        <v>11</v>
+      </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
@@ -1945,7 +1982,7 @@
       <c r="Z13" s="24"/>
       <c r="AA13" s="6">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="AB13" s="6">
         <v>85</v>
@@ -1991,10 +2028,14 @@
       <c r="I14" s="3">
         <v>8</v>
       </c>
-      <c r="J14" s="3"/>
+      <c r="J14" s="3">
+        <v>1</v>
+      </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
@@ -2010,7 +2051,7 @@
       <c r="Z14" s="24"/>
       <c r="AA14" s="6">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AB14" s="6">
         <v>85</v>
@@ -2056,10 +2097,16 @@
       <c r="I15" s="49">
         <v>4</v>
       </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="J15" s="3">
+        <v>1</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1</v>
+      </c>
       <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
+      <c r="M15" s="49">
+        <v>7</v>
+      </c>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
@@ -2075,7 +2122,7 @@
       <c r="Z15" s="24"/>
       <c r="AA15" s="6">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AB15" s="6">
         <v>85</v>
@@ -2121,10 +2168,14 @@
       <c r="I16" s="3">
         <v>8</v>
       </c>
-      <c r="J16" s="3"/>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
+      <c r="M16" s="49">
+        <v>4</v>
+      </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
@@ -2140,7 +2191,7 @@
       <c r="Z16" s="24"/>
       <c r="AA16" s="6">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB16" s="6">
         <v>85</v>
@@ -2186,10 +2237,14 @@
       <c r="I17" s="3">
         <v>8</v>
       </c>
-      <c r="J17" s="3"/>
+      <c r="J17" s="3">
+        <v>1</v>
+      </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
+      <c r="M17" s="49">
+        <v>7</v>
+      </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
@@ -2205,7 +2260,7 @@
       <c r="Z17" s="24"/>
       <c r="AA17" s="6">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AB17" s="6">
         <v>85</v>
@@ -2251,10 +2306,14 @@
       <c r="I18" s="3">
         <v>8</v>
       </c>
-      <c r="J18" s="3"/>
+      <c r="J18" s="3">
+        <v>1</v>
+      </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
+      <c r="M18" s="3">
+        <v>11</v>
+      </c>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
@@ -2270,7 +2329,7 @@
       <c r="Z18" s="24"/>
       <c r="AA18" s="6">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="AB18" s="6">
         <v>85</v>
@@ -2316,10 +2375,14 @@
       <c r="I19" s="3">
         <v>8</v>
       </c>
-      <c r="J19" s="3"/>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
+      <c r="M19" s="49">
+        <v>3</v>
+      </c>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
@@ -2335,7 +2398,7 @@
       <c r="Z19" s="24"/>
       <c r="AA19" s="6">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AB19" s="6">
         <v>85</v>
@@ -2381,10 +2444,14 @@
       <c r="I20" s="3">
         <v>8</v>
       </c>
-      <c r="J20" s="3"/>
+      <c r="J20" s="3">
+        <v>1</v>
+      </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
+      <c r="M20" s="49">
+        <v>4</v>
+      </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
@@ -2400,7 +2467,7 @@
       <c r="Z20" s="24"/>
       <c r="AA20" s="6">
         <f t="shared" ref="AA20:AA22" si="15">SUM(C20:Z20)</f>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AB20" s="6">
         <v>85</v>
@@ -2446,10 +2513,14 @@
       <c r="I21" s="3">
         <v>8</v>
       </c>
-      <c r="J21" s="3"/>
+      <c r="J21" s="3">
+        <v>1</v>
+      </c>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
+      <c r="M21" s="49">
+        <v>4</v>
+      </c>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
@@ -2465,7 +2536,7 @@
       <c r="Z21" s="24"/>
       <c r="AA21" s="6">
         <f t="shared" si="15"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AB21" s="6">
         <v>85</v>
@@ -2511,10 +2582,14 @@
       <c r="I22" s="45">
         <v>8</v>
       </c>
-      <c r="J22" s="45"/>
+      <c r="J22" s="45">
+        <v>1</v>
+      </c>
       <c r="K22" s="45"/>
       <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
+      <c r="M22" s="63">
+        <v>9</v>
+      </c>
       <c r="N22" s="45"/>
       <c r="O22" s="45"/>
       <c r="P22" s="45"/>
@@ -2530,7 +2605,7 @@
       <c r="Z22" s="46"/>
       <c r="AA22" s="6">
         <f t="shared" si="15"/>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AB22" s="6">
         <v>85</v>
@@ -2986,7 +3061,7 @@
       <c r="AB36" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="TVgpDA4FE0ZI8RFLm+98lnJ1dgSyR9rCe7hrw+nQnn9zhRH8u9VFRlDT7yvvpoxF2r1abU9XOqDvWbqd8GG8Eg==" saltValue="kdKRkPWmOQtePkcM43bN6g==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8Y28ZV3CokaOSUsOzneeeZ/MlMrAXDTAqn6P5moPlH/5JN/iYI561T113aA6tAXXBnBXbOER5rbIvRTi6SOaTw==" saltValue="kO/V2MHtzFga1iSlZWxdag==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
   <sortState ref="A2:A22">
     <sortCondition ref="A2"/>
   </sortState>

--- a/Баллы 2019.xlsx
+++ b/Баллы 2019.xlsx
@@ -186,7 +186,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,6 +211,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="28">
     <border>
@@ -551,7 +557,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -686,45 +692,46 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1062,10 +1069,10 @@
   <dimension ref="A1:AE36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="23" topLeftCell="F24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="23" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="M22" sqref="M22"/>
+      <selection pane="bottomRight" activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1221,7 +1228,9 @@
       <c r="J2" s="3">
         <v>1</v>
       </c>
-      <c r="K2" s="3"/>
+      <c r="K2" s="3">
+        <v>1</v>
+      </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3">
         <v>11</v>
@@ -1241,7 +1250,7 @@
       <c r="Z2" s="24"/>
       <c r="AA2" s="27">
         <f t="shared" ref="AA2:AA7" si="0">SUM(C2:Z2)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AB2" s="27">
         <v>85</v>
@@ -1290,7 +1299,9 @@
       <c r="J3" s="3">
         <v>0</v>
       </c>
-      <c r="K3" s="3"/>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -1327,7 +1338,7 @@
       </c>
     </row>
     <row r="4" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="53" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="22">
@@ -1357,7 +1368,9 @@
       <c r="J4" s="3">
         <v>0</v>
       </c>
-      <c r="K4" s="3"/>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -1424,9 +1437,13 @@
       <c r="J5" s="3">
         <v>1</v>
       </c>
-      <c r="K5" s="3"/>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
       <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
+      <c r="M5" s="49">
+        <v>4</v>
+      </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
@@ -1442,7 +1459,7 @@
       <c r="Z5" s="24"/>
       <c r="AA5" s="6">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AB5" s="6">
         <v>85</v>
@@ -1491,7 +1508,9 @@
       <c r="J6" s="3">
         <v>1</v>
       </c>
-      <c r="K6" s="3"/>
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -1509,7 +1528,7 @@
       <c r="Z6" s="24"/>
       <c r="AA6" s="6">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AB6" s="6">
         <v>85</v>
@@ -1528,7 +1547,7 @@
       </c>
     </row>
     <row r="7" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="53" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="22">
@@ -1558,7 +1577,9 @@
       <c r="J7" s="3">
         <v>0</v>
       </c>
-      <c r="K7" s="3"/>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -1625,7 +1646,9 @@
       <c r="J8" s="3">
         <v>1</v>
       </c>
-      <c r="K8" s="3"/>
+      <c r="K8" s="3">
+        <v>1</v>
+      </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -1643,7 +1666,7 @@
       <c r="Z8" s="24"/>
       <c r="AA8" s="6">
         <f t="shared" ref="AA8:AA19" si="7">SUM(C8:Z8)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB8" s="6">
         <v>85</v>
@@ -1692,7 +1715,9 @@
       <c r="J9" s="3">
         <v>1</v>
       </c>
-      <c r="K9" s="3"/>
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -1710,7 +1735,7 @@
       <c r="Z9" s="24"/>
       <c r="AA9" s="6">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AB9" s="6">
         <v>85</v>
@@ -1759,7 +1784,9 @@
       <c r="J10" s="3">
         <v>1</v>
       </c>
-      <c r="K10" s="3"/>
+      <c r="K10" s="3">
+        <v>1</v>
+      </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -1777,7 +1804,7 @@
       <c r="Z10" s="24"/>
       <c r="AA10" s="6">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AB10" s="6">
         <v>85</v>
@@ -1796,7 +1823,7 @@
       </c>
     </row>
     <row r="11" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="50" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="22">
@@ -1826,7 +1853,9 @@
       <c r="J11" s="3">
         <v>0</v>
       </c>
-      <c r="K11" s="3"/>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -1893,10 +1922,12 @@
       <c r="J12" s="39">
         <v>1</v>
       </c>
-      <c r="K12" s="39"/>
+      <c r="K12" s="39">
+        <v>1</v>
+      </c>
       <c r="L12" s="39"/>
-      <c r="M12" s="62">
-        <v>4</v>
+      <c r="M12" s="51">
+        <v>7</v>
       </c>
       <c r="N12" s="39"/>
       <c r="O12" s="39"/>
@@ -1913,7 +1944,7 @@
       <c r="Z12" s="40"/>
       <c r="AA12" s="6">
         <f t="shared" si="7"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AB12" s="6">
         <v>85</v>
@@ -1962,7 +1993,9 @@
       <c r="J13" s="3">
         <v>1</v>
       </c>
-      <c r="K13" s="3"/>
+      <c r="K13" s="3">
+        <v>1</v>
+      </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3">
         <v>11</v>
@@ -1982,7 +2015,7 @@
       <c r="Z13" s="24"/>
       <c r="AA13" s="6">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AB13" s="6">
         <v>85</v>
@@ -2031,10 +2064,12 @@
       <c r="J14" s="3">
         <v>1</v>
       </c>
-      <c r="K14" s="3"/>
+      <c r="K14" s="3">
+        <v>1</v>
+      </c>
       <c r="L14" s="3"/>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="49">
+        <v>7</v>
       </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -2051,7 +2086,7 @@
       <c r="Z14" s="24"/>
       <c r="AA14" s="6">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AB14" s="6">
         <v>85</v>
@@ -2171,7 +2206,9 @@
       <c r="J16" s="3">
         <v>0</v>
       </c>
-      <c r="K16" s="3"/>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
       <c r="L16" s="3"/>
       <c r="M16" s="49">
         <v>4</v>
@@ -2240,10 +2277,12 @@
       <c r="J17" s="3">
         <v>1</v>
       </c>
-      <c r="K17" s="3"/>
+      <c r="K17" s="3">
+        <v>1</v>
+      </c>
       <c r="L17" s="3"/>
-      <c r="M17" s="49">
-        <v>7</v>
+      <c r="M17" s="3">
+        <v>11</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
@@ -2260,7 +2299,7 @@
       <c r="Z17" s="24"/>
       <c r="AA17" s="6">
         <f t="shared" si="7"/>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="AB17" s="6">
         <v>85</v>
@@ -2309,7 +2348,9 @@
       <c r="J18" s="3">
         <v>1</v>
       </c>
-      <c r="K18" s="3"/>
+      <c r="K18" s="3">
+        <v>1</v>
+      </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3">
         <v>11</v>
@@ -2329,7 +2370,7 @@
       <c r="Z18" s="24"/>
       <c r="AA18" s="6">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AB18" s="6">
         <v>85</v>
@@ -2378,7 +2419,9 @@
       <c r="J19" s="3">
         <v>0</v>
       </c>
-      <c r="K19" s="3"/>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
       <c r="L19" s="3"/>
       <c r="M19" s="49">
         <v>3</v>
@@ -2447,10 +2490,12 @@
       <c r="J20" s="3">
         <v>1</v>
       </c>
-      <c r="K20" s="3"/>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
       <c r="L20" s="3"/>
       <c r="M20" s="49">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
@@ -2467,7 +2512,7 @@
       <c r="Z20" s="24"/>
       <c r="AA20" s="6">
         <f t="shared" ref="AA20:AA22" si="15">SUM(C20:Z20)</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB20" s="6">
         <v>85</v>
@@ -2516,10 +2561,12 @@
       <c r="J21" s="3">
         <v>1</v>
       </c>
-      <c r="K21" s="3"/>
+      <c r="K21" s="3">
+        <v>1</v>
+      </c>
       <c r="L21" s="3"/>
       <c r="M21" s="49">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
@@ -2536,7 +2583,7 @@
       <c r="Z21" s="24"/>
       <c r="AA21" s="6">
         <f t="shared" si="15"/>
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AB21" s="6">
         <v>85</v>
@@ -2585,9 +2632,11 @@
       <c r="J22" s="45">
         <v>1</v>
       </c>
-      <c r="K22" s="45"/>
+      <c r="K22" s="45">
+        <v>1</v>
+      </c>
       <c r="L22" s="45"/>
-      <c r="M22" s="63">
+      <c r="M22" s="52">
         <v>9</v>
       </c>
       <c r="N22" s="45"/>
@@ -2605,7 +2654,7 @@
       <c r="Z22" s="46"/>
       <c r="AA22" s="6">
         <f t="shared" si="15"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AB22" s="6">
         <v>85</v>
@@ -2626,44 +2675,44 @@
     <row r="23" spans="1:31" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
       <c r="B23" s="23"/>
-      <c r="C23" s="52" t="s">
+      <c r="C23" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="53"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="55" t="s">
+      <c r="D23" s="57"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="52" t="s">
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="57" t="s">
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="O23" s="58"/>
-      <c r="P23" s="58"/>
-      <c r="Q23" s="58"/>
-      <c r="R23" s="60"/>
-      <c r="S23" s="57" t="s">
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="64"/>
+      <c r="S23" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="T23" s="58"/>
-      <c r="U23" s="60"/>
-      <c r="V23" s="57" t="s">
+      <c r="T23" s="62"/>
+      <c r="U23" s="64"/>
+      <c r="V23" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="W23" s="58"/>
-      <c r="X23" s="59"/>
-      <c r="Y23" s="50" t="s">
+      <c r="W23" s="62"/>
+      <c r="X23" s="63"/>
+      <c r="Y23" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="Z23" s="51"/>
+      <c r="Z23" s="55"/>
       <c r="AA23" s="6"/>
       <c r="AB23" s="5"/>
       <c r="AC23" s="7"/>
@@ -3061,7 +3110,7 @@
       <c r="AB36" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8Y28ZV3CokaOSUsOzneeeZ/MlMrAXDTAqn6P5moPlH/5JN/iYI561T113aA6tAXXBnBXbOER5rbIvRTi6SOaTw==" saltValue="kO/V2MHtzFga1iSlZWxdag==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3icVGxQN5qCEUMHFxgZ7teKTdErmeijlaMrrJlX8b9PtfRLmxWYUDS4AjL6ToF9r68IkZwB0GMuIq+5mXDlxCg==" saltValue="Mnzb0WnlPMLCVBydy6pmiw==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
   <sortState ref="A2:A22">
     <sortCondition ref="A2"/>
   </sortState>

--- a/Баллы 2019.xlsx
+++ b/Баллы 2019.xlsx
@@ -1072,7 +1072,7 @@
       <pane xSplit="2" ySplit="23" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="M28" sqref="M28"/>
+      <selection pane="bottomRight" activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1650,7 +1650,9 @@
         <v>1</v>
       </c>
       <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
+      <c r="M8" s="49">
+        <v>7</v>
+      </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
@@ -1666,7 +1668,7 @@
       <c r="Z8" s="24"/>
       <c r="AA8" s="6">
         <f t="shared" ref="AA8:AA19" si="7">SUM(C8:Z8)</f>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AB8" s="6">
         <v>85</v>
@@ -1719,7 +1721,9 @@
         <v>1</v>
       </c>
       <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
+      <c r="M9" s="49">
+        <v>7</v>
+      </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
@@ -1735,7 +1739,7 @@
       <c r="Z9" s="24"/>
       <c r="AA9" s="6">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AB9" s="6">
         <v>85</v>
@@ -2424,7 +2428,7 @@
       </c>
       <c r="L19" s="3"/>
       <c r="M19" s="49">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
@@ -2441,7 +2445,7 @@
       <c r="Z19" s="24"/>
       <c r="AA19" s="6">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AB19" s="6">
         <v>85</v>
@@ -3110,7 +3114,7 @@
       <c r="AB36" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3icVGxQN5qCEUMHFxgZ7teKTdErmeijlaMrrJlX8b9PtfRLmxWYUDS4AjL6ToF9r68IkZwB0GMuIq+5mXDlxCg==" saltValue="Mnzb0WnlPMLCVBydy6pmiw==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="CReHfUTrjsJ6oIVBd8eith0T+klqncbZbH8q1NnjXhYi92NU2uBsiQGUMtV4vTXpwHpj51HWHCVBB3QiXV1d6g==" saltValue="Xz1SFP2+QxYPh5OSnc1Oqw==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
   <sortState ref="A2:A22">
     <sortCondition ref="A2"/>
   </sortState>

--- a/Баллы 2019.xlsx
+++ b/Баллы 2019.xlsx
@@ -186,7 +186,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,6 +217,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="28">
     <border>
@@ -557,7 +563,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -732,6 +738,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1072,7 +1081,7 @@
       <pane xSplit="2" ySplit="23" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="M20" sqref="M20"/>
+      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1231,7 +1240,9 @@
       <c r="K2" s="3">
         <v>1</v>
       </c>
-      <c r="L2" s="3"/>
+      <c r="L2" s="3">
+        <v>1</v>
+      </c>
       <c r="M2" s="3">
         <v>11</v>
       </c>
@@ -1250,7 +1261,7 @@
       <c r="Z2" s="24"/>
       <c r="AA2" s="27">
         <f t="shared" ref="AA2:AA7" si="0">SUM(C2:Z2)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AB2" s="27">
         <v>85</v>
@@ -1302,8 +1313,12 @@
       <c r="K3" s="3">
         <v>0</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
@@ -1371,8 +1386,12 @@
       <c r="K4" s="3">
         <v>0</v>
       </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -1440,9 +1459,11 @@
       <c r="K5" s="3">
         <v>0</v>
       </c>
-      <c r="L5" s="3"/>
+      <c r="L5" s="3">
+        <v>1</v>
+      </c>
       <c r="M5" s="49">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -1459,7 +1480,7 @@
       <c r="Z5" s="24"/>
       <c r="AA5" s="6">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AB5" s="6">
         <v>85</v>
@@ -1511,8 +1532,12 @@
       <c r="K6" s="3">
         <v>1</v>
       </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
@@ -1528,7 +1553,7 @@
       <c r="Z6" s="24"/>
       <c r="AA6" s="6">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB6" s="6">
         <v>85</v>
@@ -1580,8 +1605,12 @@
       <c r="K7" s="3">
         <v>0</v>
       </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
@@ -1649,7 +1678,9 @@
       <c r="K8" s="3">
         <v>1</v>
       </c>
-      <c r="L8" s="3"/>
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
       <c r="M8" s="49">
         <v>7</v>
       </c>
@@ -1668,7 +1699,7 @@
       <c r="Z8" s="24"/>
       <c r="AA8" s="6">
         <f t="shared" ref="AA8:AA19" si="7">SUM(C8:Z8)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AB8" s="6">
         <v>85</v>
@@ -1720,9 +1751,11 @@
       <c r="K9" s="3">
         <v>1</v>
       </c>
-      <c r="L9" s="3"/>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
       <c r="M9" s="49">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -1739,7 +1772,7 @@
       <c r="Z9" s="24"/>
       <c r="AA9" s="6">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AB9" s="6">
         <v>85</v>
@@ -1782,8 +1815,8 @@
       <c r="H10" s="3">
         <v>1</v>
       </c>
-      <c r="I10" s="49">
-        <v>4</v>
+      <c r="I10" s="65">
+        <v>7</v>
       </c>
       <c r="J10" s="3">
         <v>1</v>
@@ -1791,8 +1824,12 @@
       <c r="K10" s="3">
         <v>1</v>
       </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+      <c r="L10" s="3">
+        <v>1</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
@@ -1808,7 +1845,7 @@
       <c r="Z10" s="24"/>
       <c r="AA10" s="6">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AB10" s="6">
         <v>85</v>
@@ -1860,8 +1897,12 @@
       <c r="K11" s="3">
         <v>0</v>
       </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
@@ -1929,7 +1970,9 @@
       <c r="K12" s="39">
         <v>1</v>
       </c>
-      <c r="L12" s="39"/>
+      <c r="L12" s="39">
+        <v>1</v>
+      </c>
       <c r="M12" s="51">
         <v>7</v>
       </c>
@@ -1948,7 +1991,7 @@
       <c r="Z12" s="40"/>
       <c r="AA12" s="6">
         <f t="shared" si="7"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AB12" s="6">
         <v>85</v>
@@ -2000,7 +2043,9 @@
       <c r="K13" s="3">
         <v>1</v>
       </c>
-      <c r="L13" s="3"/>
+      <c r="L13" s="3">
+        <v>1</v>
+      </c>
       <c r="M13" s="3">
         <v>11</v>
       </c>
@@ -2019,7 +2064,7 @@
       <c r="Z13" s="24"/>
       <c r="AA13" s="6">
         <f t="shared" si="7"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AB13" s="6">
         <v>85</v>
@@ -2071,7 +2116,9 @@
       <c r="K14" s="3">
         <v>1</v>
       </c>
-      <c r="L14" s="3"/>
+      <c r="L14" s="3">
+        <v>1</v>
+      </c>
       <c r="M14" s="49">
         <v>7</v>
       </c>
@@ -2090,7 +2137,7 @@
       <c r="Z14" s="24"/>
       <c r="AA14" s="6">
         <f t="shared" si="7"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AB14" s="6">
         <v>85</v>
@@ -2142,7 +2189,9 @@
       <c r="K15" s="3">
         <v>1</v>
       </c>
-      <c r="L15" s="3"/>
+      <c r="L15" s="3">
+        <v>1</v>
+      </c>
       <c r="M15" s="49">
         <v>7</v>
       </c>
@@ -2161,7 +2210,7 @@
       <c r="Z15" s="24"/>
       <c r="AA15" s="6">
         <f t="shared" si="7"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AB15" s="6">
         <v>85</v>
@@ -2213,7 +2262,9 @@
       <c r="K16" s="3">
         <v>0</v>
       </c>
-      <c r="L16" s="3"/>
+      <c r="L16" s="3">
+        <v>1</v>
+      </c>
       <c r="M16" s="49">
         <v>4</v>
       </c>
@@ -2232,7 +2283,7 @@
       <c r="Z16" s="24"/>
       <c r="AA16" s="6">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AB16" s="6">
         <v>85</v>
@@ -2284,7 +2335,9 @@
       <c r="K17" s="3">
         <v>1</v>
       </c>
-      <c r="L17" s="3"/>
+      <c r="L17" s="3">
+        <v>1</v>
+      </c>
       <c r="M17" s="3">
         <v>11</v>
       </c>
@@ -2303,7 +2356,7 @@
       <c r="Z17" s="24"/>
       <c r="AA17" s="6">
         <f t="shared" si="7"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AB17" s="6">
         <v>85</v>
@@ -2355,7 +2408,9 @@
       <c r="K18" s="3">
         <v>1</v>
       </c>
-      <c r="L18" s="3"/>
+      <c r="L18" s="3">
+        <v>1</v>
+      </c>
       <c r="M18" s="3">
         <v>11</v>
       </c>
@@ -2374,7 +2429,7 @@
       <c r="Z18" s="24"/>
       <c r="AA18" s="6">
         <f t="shared" si="7"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AB18" s="6">
         <v>85</v>
@@ -2426,7 +2481,9 @@
       <c r="K19" s="3">
         <v>0</v>
       </c>
-      <c r="L19" s="3"/>
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
       <c r="M19" s="49">
         <v>7</v>
       </c>
@@ -2497,7 +2554,9 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3"/>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
       <c r="M20" s="49">
         <v>7</v>
       </c>
@@ -2568,7 +2627,9 @@
       <c r="K21" s="3">
         <v>1</v>
       </c>
-      <c r="L21" s="3"/>
+      <c r="L21" s="3">
+        <v>1</v>
+      </c>
       <c r="M21" s="49">
         <v>9</v>
       </c>
@@ -2587,7 +2648,7 @@
       <c r="Z21" s="24"/>
       <c r="AA21" s="6">
         <f t="shared" si="15"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB21" s="6">
         <v>85</v>
@@ -2639,7 +2700,9 @@
       <c r="K22" s="45">
         <v>1</v>
       </c>
-      <c r="L22" s="45"/>
+      <c r="L22" s="45">
+        <v>1</v>
+      </c>
       <c r="M22" s="52">
         <v>9</v>
       </c>
@@ -2658,7 +2721,7 @@
       <c r="Z22" s="46"/>
       <c r="AA22" s="6">
         <f t="shared" si="15"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AB22" s="6">
         <v>85</v>
@@ -3114,7 +3177,7 @@
       <c r="AB36" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="CReHfUTrjsJ6oIVBd8eith0T+klqncbZbH8q1NnjXhYi92NU2uBsiQGUMtV4vTXpwHpj51HWHCVBB3QiXV1d6g==" saltValue="Xz1SFP2+QxYPh5OSnc1Oqw==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="NDHLD1bJvQGkjU9ApN5KFPznTNqbzz8BDz/rBFX1wq7VsGpfRJHcRyo+DuM0XAico0AIpHwI7JIlF8VB5ngh8g==" saltValue="cGSrHWBHP4h48J94ngt4hw==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
   <sortState ref="A2:A22">
     <sortCondition ref="A2"/>
   </sortState>

--- a/Баллы 2019.xlsx
+++ b/Баллы 2019.xlsx
@@ -699,13 +699,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -738,9 +741,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1078,10 +1078,10 @@
   <dimension ref="A1:AE36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="23" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="23" topLeftCell="I24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomRight" activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1246,7 +1246,9 @@
       <c r="M2" s="3">
         <v>11</v>
       </c>
-      <c r="N2" s="3"/>
+      <c r="N2" s="3">
+        <v>1</v>
+      </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
@@ -1261,7 +1263,7 @@
       <c r="Z2" s="24"/>
       <c r="AA2" s="27">
         <f t="shared" ref="AA2:AA7" si="0">SUM(C2:Z2)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AB2" s="27">
         <v>85</v>
@@ -1280,7 +1282,7 @@
       </c>
     </row>
     <row r="3" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="50" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="22">
@@ -1319,7 +1321,9 @@
       <c r="M3" s="3">
         <v>0</v>
       </c>
-      <c r="N3" s="3"/>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -1353,7 +1357,7 @@
       </c>
     </row>
     <row r="4" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="52" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="22">
@@ -1392,7 +1396,9 @@
       <c r="M4" s="3">
         <v>0</v>
       </c>
-      <c r="N4" s="3"/>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
@@ -1465,7 +1471,9 @@
       <c r="M5" s="49">
         <v>7</v>
       </c>
-      <c r="N5" s="3"/>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
@@ -1536,9 +1544,11 @@
         <v>1</v>
       </c>
       <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
@@ -1553,7 +1563,7 @@
       <c r="Z6" s="24"/>
       <c r="AA6" s="6">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="AB6" s="6">
         <v>85</v>
@@ -1572,7 +1582,7 @@
       </c>
     </row>
     <row r="7" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="52" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="22">
@@ -1611,7 +1621,9 @@
       <c r="M7" s="3">
         <v>0</v>
       </c>
-      <c r="N7" s="3"/>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
@@ -1681,10 +1693,12 @@
       <c r="L8" s="3">
         <v>1</v>
       </c>
-      <c r="M8" s="49">
-        <v>7</v>
-      </c>
-      <c r="N8" s="3"/>
+      <c r="M8" s="53">
+        <v>10</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1</v>
+      </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -1699,7 +1713,7 @@
       <c r="Z8" s="24"/>
       <c r="AA8" s="6">
         <f t="shared" ref="AA8:AA19" si="7">SUM(C8:Z8)</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AB8" s="6">
         <v>85</v>
@@ -1754,10 +1768,12 @@
       <c r="L9" s="3">
         <v>1</v>
       </c>
-      <c r="M9" s="49">
+      <c r="M9" s="53">
         <v>11</v>
       </c>
-      <c r="N9" s="3"/>
+      <c r="N9" s="3">
+        <v>1</v>
+      </c>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
@@ -1772,7 +1788,7 @@
       <c r="Z9" s="24"/>
       <c r="AA9" s="6">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AB9" s="6">
         <v>85</v>
@@ -1815,7 +1831,7 @@
       <c r="H10" s="3">
         <v>1</v>
       </c>
-      <c r="I10" s="65">
+      <c r="I10" s="53">
         <v>7</v>
       </c>
       <c r="J10" s="3">
@@ -1830,7 +1846,9 @@
       <c r="M10" s="3">
         <v>0</v>
       </c>
-      <c r="N10" s="3"/>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
@@ -1903,7 +1921,9 @@
       <c r="M11" s="3">
         <v>0</v>
       </c>
-      <c r="N11" s="3"/>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
@@ -1973,10 +1993,12 @@
       <c r="L12" s="39">
         <v>1</v>
       </c>
-      <c r="M12" s="51">
-        <v>7</v>
-      </c>
-      <c r="N12" s="39"/>
+      <c r="M12" s="54">
+        <v>11</v>
+      </c>
+      <c r="N12" s="39">
+        <v>1</v>
+      </c>
       <c r="O12" s="39"/>
       <c r="P12" s="39"/>
       <c r="Q12" s="39"/>
@@ -1991,7 +2013,7 @@
       <c r="Z12" s="40"/>
       <c r="AA12" s="6">
         <f t="shared" si="7"/>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="AB12" s="6">
         <v>85</v>
@@ -2049,7 +2071,9 @@
       <c r="M13" s="3">
         <v>11</v>
       </c>
-      <c r="N13" s="3"/>
+      <c r="N13" s="3">
+        <v>1</v>
+      </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
@@ -2064,7 +2088,7 @@
       <c r="Z13" s="24"/>
       <c r="AA13" s="6">
         <f t="shared" si="7"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AB13" s="6">
         <v>85</v>
@@ -2119,10 +2143,12 @@
       <c r="L14" s="3">
         <v>1</v>
       </c>
-      <c r="M14" s="49">
-        <v>7</v>
-      </c>
-      <c r="N14" s="3"/>
+      <c r="M14" s="53">
+        <v>10</v>
+      </c>
+      <c r="N14" s="3">
+        <v>1</v>
+      </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
@@ -2137,7 +2163,7 @@
       <c r="Z14" s="24"/>
       <c r="AA14" s="6">
         <f t="shared" si="7"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AB14" s="6">
         <v>85</v>
@@ -2195,7 +2221,9 @@
       <c r="M15" s="49">
         <v>7</v>
       </c>
-      <c r="N15" s="3"/>
+      <c r="N15" s="3">
+        <v>1</v>
+      </c>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
@@ -2210,7 +2238,7 @@
       <c r="Z15" s="24"/>
       <c r="AA15" s="6">
         <f t="shared" si="7"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB15" s="6">
         <v>85</v>
@@ -2268,7 +2296,9 @@
       <c r="M16" s="49">
         <v>4</v>
       </c>
-      <c r="N16" s="3"/>
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
@@ -2341,7 +2371,9 @@
       <c r="M17" s="3">
         <v>11</v>
       </c>
-      <c r="N17" s="3"/>
+      <c r="N17" s="3">
+        <v>1</v>
+      </c>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
@@ -2356,7 +2388,7 @@
       <c r="Z17" s="24"/>
       <c r="AA17" s="6">
         <f t="shared" si="7"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AB17" s="6">
         <v>85</v>
@@ -2414,7 +2446,9 @@
       <c r="M18" s="3">
         <v>11</v>
       </c>
-      <c r="N18" s="3"/>
+      <c r="N18" s="3">
+        <v>1</v>
+      </c>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
@@ -2429,7 +2463,7 @@
       <c r="Z18" s="24"/>
       <c r="AA18" s="6">
         <f t="shared" si="7"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AB18" s="6">
         <v>85</v>
@@ -2487,7 +2521,9 @@
       <c r="M19" s="49">
         <v>7</v>
       </c>
-      <c r="N19" s="3"/>
+      <c r="N19" s="3">
+        <v>0</v>
+      </c>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
@@ -2560,7 +2596,9 @@
       <c r="M20" s="49">
         <v>7</v>
       </c>
-      <c r="N20" s="3"/>
+      <c r="N20" s="3">
+        <v>1</v>
+      </c>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
@@ -2575,7 +2613,7 @@
       <c r="Z20" s="24"/>
       <c r="AA20" s="6">
         <f t="shared" ref="AA20:AA22" si="15">SUM(C20:Z20)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB20" s="6">
         <v>85</v>
@@ -2633,7 +2671,9 @@
       <c r="M21" s="49">
         <v>9</v>
       </c>
-      <c r="N21" s="3"/>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
@@ -2703,10 +2743,12 @@
       <c r="L22" s="45">
         <v>1</v>
       </c>
-      <c r="M22" s="52">
+      <c r="M22" s="51">
         <v>9</v>
       </c>
-      <c r="N22" s="45"/>
+      <c r="N22" s="45">
+        <v>1</v>
+      </c>
       <c r="O22" s="45"/>
       <c r="P22" s="45"/>
       <c r="Q22" s="45"/>
@@ -2721,7 +2763,7 @@
       <c r="Z22" s="46"/>
       <c r="AA22" s="6">
         <f t="shared" si="15"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB22" s="6">
         <v>85</v>
@@ -2742,44 +2784,44 @@
     <row r="23" spans="1:31" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
       <c r="B23" s="23"/>
-      <c r="C23" s="56" t="s">
+      <c r="C23" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="57"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="59" t="s">
+      <c r="D23" s="58"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="56" t="s">
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="61" t="s">
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="O23" s="62"/>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="62"/>
-      <c r="R23" s="64"/>
-      <c r="S23" s="61" t="s">
+      <c r="O23" s="63"/>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="63"/>
+      <c r="R23" s="65"/>
+      <c r="S23" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="T23" s="62"/>
-      <c r="U23" s="64"/>
-      <c r="V23" s="61" t="s">
+      <c r="T23" s="63"/>
+      <c r="U23" s="65"/>
+      <c r="V23" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="W23" s="62"/>
-      <c r="X23" s="63"/>
-      <c r="Y23" s="54" t="s">
+      <c r="W23" s="63"/>
+      <c r="X23" s="64"/>
+      <c r="Y23" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="Z23" s="55"/>
+      <c r="Z23" s="56"/>
       <c r="AA23" s="6"/>
       <c r="AB23" s="5"/>
       <c r="AC23" s="7"/>
@@ -3177,7 +3219,7 @@
       <c r="AB36" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="NDHLD1bJvQGkjU9ApN5KFPznTNqbzz8BDz/rBFX1wq7VsGpfRJHcRyo+DuM0XAico0AIpHwI7JIlF8VB5ngh8g==" saltValue="cGSrHWBHP4h48J94ngt4hw==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rmgxp1/hM9XBkUN5kIc5hHc8BezXb4sRyevGOwOFyQSGTGxZJIhy3Jk7uC4GCHL2kP3xxqoChEdDcefl2cN7Iw==" saltValue="yvtLRltR1mW5tmd048Ofzw==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
   <sortState ref="A2:A22">
     <sortCondition ref="A2"/>
   </sortState>

--- a/Баллы 2019.xlsx
+++ b/Баллы 2019.xlsx
@@ -1078,10 +1078,10 @@
   <dimension ref="A1:AE36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="23" topLeftCell="I24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="23" topLeftCell="G24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="M29" sqref="M29"/>
+      <selection pane="bottomRight" activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1249,7 +1249,9 @@
       <c r="N2" s="3">
         <v>1</v>
       </c>
-      <c r="O2" s="3"/>
+      <c r="O2" s="3">
+        <v>1</v>
+      </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
@@ -1263,7 +1265,7 @@
       <c r="Z2" s="24"/>
       <c r="AA2" s="27">
         <f t="shared" ref="AA2:AA7" si="0">SUM(C2:Z2)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AB2" s="27">
         <v>85</v>
@@ -1324,7 +1326,9 @@
       <c r="N3" s="3">
         <v>0</v>
       </c>
-      <c r="O3" s="3"/>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
@@ -1399,7 +1403,9 @@
       <c r="N4" s="3">
         <v>0</v>
       </c>
-      <c r="O4" s="3"/>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
@@ -1468,13 +1474,15 @@
       <c r="L5" s="3">
         <v>1</v>
       </c>
-      <c r="M5" s="49">
-        <v>7</v>
+      <c r="M5" s="53">
+        <v>10</v>
       </c>
       <c r="N5" s="3">
         <v>0</v>
       </c>
-      <c r="O5" s="3"/>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
@@ -1488,7 +1496,7 @@
       <c r="Z5" s="24"/>
       <c r="AA5" s="6">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AB5" s="6">
         <v>85</v>
@@ -1549,7 +1557,9 @@
       <c r="N6" s="3">
         <v>1</v>
       </c>
-      <c r="O6" s="3"/>
+      <c r="O6" s="3">
+        <v>1</v>
+      </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
@@ -1563,7 +1573,7 @@
       <c r="Z6" s="24"/>
       <c r="AA6" s="6">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AB6" s="6">
         <v>85</v>
@@ -1624,7 +1634,9 @@
       <c r="N7" s="3">
         <v>0</v>
       </c>
-      <c r="O7" s="3"/>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
@@ -1699,7 +1711,9 @@
       <c r="N8" s="3">
         <v>1</v>
       </c>
-      <c r="O8" s="3"/>
+      <c r="O8" s="3">
+        <v>1</v>
+      </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
@@ -1713,7 +1727,7 @@
       <c r="Z8" s="24"/>
       <c r="AA8" s="6">
         <f t="shared" ref="AA8:AA19" si="7">SUM(C8:Z8)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AB8" s="6">
         <v>85</v>
@@ -1774,7 +1788,9 @@
       <c r="N9" s="3">
         <v>1</v>
       </c>
-      <c r="O9" s="3"/>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
@@ -1847,9 +1863,11 @@
         <v>0</v>
       </c>
       <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
@@ -1863,7 +1881,7 @@
       <c r="Z10" s="24"/>
       <c r="AA10" s="6">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB10" s="6">
         <v>85</v>
@@ -1924,7 +1942,9 @@
       <c r="N11" s="3">
         <v>0</v>
       </c>
-      <c r="O11" s="3"/>
+      <c r="O11" s="3">
+        <v>0</v>
+      </c>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
@@ -1999,7 +2019,9 @@
       <c r="N12" s="39">
         <v>1</v>
       </c>
-      <c r="O12" s="39"/>
+      <c r="O12" s="39">
+        <v>1</v>
+      </c>
       <c r="P12" s="39"/>
       <c r="Q12" s="39"/>
       <c r="R12" s="39"/>
@@ -2013,7 +2035,7 @@
       <c r="Z12" s="40"/>
       <c r="AA12" s="6">
         <f t="shared" si="7"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AB12" s="6">
         <v>85</v>
@@ -2074,7 +2096,9 @@
       <c r="N13" s="3">
         <v>1</v>
       </c>
-      <c r="O13" s="3"/>
+      <c r="O13" s="3">
+        <v>1</v>
+      </c>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
@@ -2088,7 +2112,7 @@
       <c r="Z13" s="24"/>
       <c r="AA13" s="6">
         <f t="shared" si="7"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AB13" s="6">
         <v>85</v>
@@ -2149,7 +2173,9 @@
       <c r="N14" s="3">
         <v>1</v>
       </c>
-      <c r="O14" s="3"/>
+      <c r="O14" s="3">
+        <v>1</v>
+      </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
@@ -2163,7 +2189,7 @@
       <c r="Z14" s="24"/>
       <c r="AA14" s="6">
         <f t="shared" si="7"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AB14" s="6">
         <v>85</v>
@@ -2224,7 +2250,9 @@
       <c r="N15" s="3">
         <v>1</v>
       </c>
-      <c r="O15" s="3"/>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
@@ -2299,7 +2327,9 @@
       <c r="N16" s="3">
         <v>0</v>
       </c>
-      <c r="O16" s="3"/>
+      <c r="O16" s="3">
+        <v>1</v>
+      </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
@@ -2313,7 +2343,7 @@
       <c r="Z16" s="24"/>
       <c r="AA16" s="6">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AB16" s="6">
         <v>85</v>
@@ -2374,7 +2404,9 @@
       <c r="N17" s="3">
         <v>1</v>
       </c>
-      <c r="O17" s="3"/>
+      <c r="O17" s="3">
+        <v>1</v>
+      </c>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
@@ -2388,7 +2420,7 @@
       <c r="Z17" s="24"/>
       <c r="AA17" s="6">
         <f t="shared" si="7"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AB17" s="6">
         <v>85</v>
@@ -2449,7 +2481,9 @@
       <c r="N18" s="3">
         <v>1</v>
       </c>
-      <c r="O18" s="3"/>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
@@ -2518,13 +2552,15 @@
       <c r="L19" s="3">
         <v>0</v>
       </c>
-      <c r="M19" s="49">
-        <v>7</v>
+      <c r="M19" s="53">
+        <v>9</v>
       </c>
       <c r="N19" s="3">
         <v>0</v>
       </c>
-      <c r="O19" s="3"/>
+      <c r="O19" s="3">
+        <v>1</v>
+      </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
@@ -2538,7 +2574,7 @@
       <c r="Z19" s="24"/>
       <c r="AA19" s="6">
         <f t="shared" si="7"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AB19" s="6">
         <v>85</v>
@@ -2599,7 +2635,9 @@
       <c r="N20" s="3">
         <v>1</v>
       </c>
-      <c r="O20" s="3"/>
+      <c r="O20" s="3">
+        <v>1</v>
+      </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
@@ -2613,7 +2651,7 @@
       <c r="Z20" s="24"/>
       <c r="AA20" s="6">
         <f t="shared" ref="AA20:AA22" si="15">SUM(C20:Z20)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AB20" s="6">
         <v>85</v>
@@ -2674,7 +2712,9 @@
       <c r="N21" s="3">
         <v>0</v>
       </c>
-      <c r="O21" s="3"/>
+      <c r="O21" s="3">
+        <v>1</v>
+      </c>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
@@ -2688,7 +2728,7 @@
       <c r="Z21" s="24"/>
       <c r="AA21" s="6">
         <f t="shared" si="15"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB21" s="6">
         <v>85</v>
@@ -2749,7 +2789,9 @@
       <c r="N22" s="45">
         <v>1</v>
       </c>
-      <c r="O22" s="45"/>
+      <c r="O22" s="45">
+        <v>0</v>
+      </c>
       <c r="P22" s="45"/>
       <c r="Q22" s="45"/>
       <c r="R22" s="45"/>
@@ -3219,7 +3261,7 @@
       <c r="AB36" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="rmgxp1/hM9XBkUN5kIc5hHc8BezXb4sRyevGOwOFyQSGTGxZJIhy3Jk7uC4GCHL2kP3xxqoChEdDcefl2cN7Iw==" saltValue="yvtLRltR1mW5tmd048Ofzw==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="J3Oui8UQQ5rNXHYwfbvcGP3x8KNXXW+/iPiiwOAhOSzsW203+Ku9i+B/8iEAe08DwHs0zOxTL2jfrrzPfCWUSQ==" saltValue="sIHRfyoXzClQyeeedw9l3Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
   <sortState ref="A2:A22">
     <sortCondition ref="A2"/>
   </sortState>

--- a/Баллы 2019.xlsx
+++ b/Баллы 2019.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>Варианты</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t xml:space="preserve">Мочалов Валентин </t>
+  </si>
+  <si>
+    <t>dead soul</t>
   </si>
 </sst>
 </file>
@@ -563,7 +566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -692,9 +695,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -741,12 +741,32 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1078,10 +1098,10 @@
   <dimension ref="A1:AE36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="23" topLeftCell="G24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="23" topLeftCell="L24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="O22" sqref="O22"/>
+      <selection pane="bottomRight" activeCell="S23" sqref="S23:U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1252,31 +1272,41 @@
       <c r="O2" s="3">
         <v>1</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
+      <c r="P2" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="24">
+        <v>1</v>
+      </c>
+      <c r="R2" s="3">
+        <v>12</v>
+      </c>
+      <c r="S2" s="21">
+        <v>1</v>
+      </c>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
-      <c r="Z2" s="24"/>
+      <c r="Z2" s="24">
+        <v>24</v>
+      </c>
       <c r="AA2" s="27">
         <f t="shared" ref="AA2:AA7" si="0">SUM(C2:Z2)</f>
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="AB2" s="27">
         <v>85</v>
       </c>
       <c r="AC2" s="28" t="str">
         <f t="shared" ref="AC2:AC3" si="1">IF(AA2&gt;=87,"отл",IF(AA2&gt;=73,"хорошо",IF(AA2&gt;=50,"удовл","Не удовл")))</f>
-        <v>Не удовл</v>
+        <v>хорошо</v>
       </c>
       <c r="AD2" s="28" t="str">
-        <f>IF(AA2&gt;=98,"А+",IF(AA2&gt;=93,"А",IF(AA2&gt;=90,"А-",IF(AA2&gt;=87,"B+",IF(AA2&gt;=83,"B",IF(AA2&gt;=80,"B-",IF(AA2&gt;=77,"C+",IF(AA2&gt;=73,"B",IF(AA2&gt;=70,"C-",IF(AA2&gt;=67,"D+",IF(AA2&gt;=63,"D",IF(AA2&gt;=60,"D-",IF(AA2&gt;=50,"E","Не удовл")))))))))))))</f>
-        <v>Не удовл</v>
+        <f>IF(AA2&gt;=98,"А+",IF(AA2&gt;=93,"А",IF(AA2&gt;=90,"А-",IF(AA2&gt;=87,"B+",IF(AA2&gt;=83,"B",IF(AA2&gt;=80,"B-",IF(AA2&gt;=77,"C+",IF(AA2&gt;=73,"C",IF(AA2&gt;=70,"C-",IF(AA2&gt;=67,"D+",IF(AA2&gt;=63,"D",IF(AA2&gt;=60,"D-",IF(AA2&gt;=50,"E","Не удовл")))))))))))))</f>
+        <v>C</v>
       </c>
       <c r="AE2" s="28" t="str">
         <f xml:space="preserve"> IF(AA2&gt;=AB2,"Зачет","Не зачет")</f>
@@ -1284,7 +1314,7 @@
       </c>
     </row>
     <row r="3" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="49" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="22">
@@ -1329,20 +1359,30 @@
       <c r="O3" s="3">
         <v>0</v>
       </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
+      <c r="P3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0</v>
+      </c>
+      <c r="R3" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="S3" s="21">
+        <v>0</v>
+      </c>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="24"/>
+      <c r="Z3" s="24">
+        <v>24</v>
+      </c>
       <c r="AA3" s="6">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="AB3" s="6">
         <v>85</v>
@@ -1361,7 +1401,7 @@
       </c>
     </row>
     <row r="4" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="51" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="22">
@@ -1406,20 +1446,30 @@
       <c r="O4" s="3">
         <v>0</v>
       </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
+      <c r="P4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0</v>
+      </c>
+      <c r="R4" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="S4" s="21">
+        <v>0</v>
+      </c>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
-      <c r="Z4" s="24"/>
+      <c r="Z4" s="24">
+        <v>24</v>
+      </c>
       <c r="AA4" s="6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="AB4" s="6">
         <v>85</v>
@@ -1429,11 +1479,11 @@
         <v>Не удовл</v>
       </c>
       <c r="AD4" s="19" t="str">
-        <f>IF(AA4&gt;=98,"А+",IF(AA4&gt;=93,"А",IF(AA4&gt;=90,"А-",IF(AA4&gt;=87,"B+",IF(AA4&gt;=83,"B",IF(AA4&gt;=80,"B-",IF(AA4&gt;=77,"C+",IF(AA4&gt;=73,"C",IF(AA4&gt;=70,"C-",IF(AA4&gt;=67,"D+",IF(AA4&gt;=63,"D",IF(AA4&gt;=60,"D-",IF(AA4&gt;=50,"E","Не удовл")))))))))))))</f>
+        <f t="shared" ref="AD4:AD22" si="3">IF(AA4&gt;=98,"А+",IF(AA4&gt;=93,"А",IF(AA4&gt;=90,"А-",IF(AA4&gt;=87,"B+",IF(AA4&gt;=83,"B",IF(AA4&gt;=80,"B-",IF(AA4&gt;=77,"C+",IF(AA4&gt;=73,"C",IF(AA4&gt;=70,"C-",IF(AA4&gt;=67,"D+",IF(AA4&gt;=63,"D",IF(AA4&gt;=60,"D-",IF(AA4&gt;=50,"E","Не удовл")))))))))))))</f>
         <v>Не удовл</v>
       </c>
       <c r="AE4" s="4" t="str">
-        <f t="shared" ref="AE4" si="3" xml:space="preserve"> IF(AA4&gt;=AB4,"Зачет","Не зачет")</f>
+        <f t="shared" ref="AE4" si="4" xml:space="preserve"> IF(AA4&gt;=AB4,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
     </row>
@@ -1474,7 +1524,7 @@
       <c r="L5" s="3">
         <v>1</v>
       </c>
-      <c r="M5" s="53">
+      <c r="M5" s="52">
         <v>10</v>
       </c>
       <c r="N5" s="3">
@@ -1483,31 +1533,41 @@
       <c r="O5" s="3">
         <v>0</v>
       </c>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+      <c r="R5" s="65">
+        <v>12</v>
+      </c>
+      <c r="S5" s="21">
+        <v>0</v>
+      </c>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
-      <c r="Z5" s="24"/>
+      <c r="Z5" s="24">
+        <v>24</v>
+      </c>
       <c r="AA5" s="6">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="AB5" s="6">
         <v>85</v>
       </c>
       <c r="AC5" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Не удовл</v>
+        <v>удовл</v>
       </c>
       <c r="AD5" s="19" t="str">
-        <f t="shared" ref="AD5:AD7" si="4">IF(AA5&gt;=98,"А+",IF(AA5&gt;=93,"А",IF(AA5&gt;=90,"А-",IF(AA5&gt;=87,"B+",IF(AA5&gt;=83,"B",IF(AA5&gt;=80,"B-",IF(AA5&gt;=77,"C+",IF(AA5&gt;=73,"C",IF(AA5&gt;=70,"C-",IF(AA5&gt;=67,"D+",IF(AA5&gt;=63,"D",IF(AA5&gt;=60,"D-",IF(AA5&gt;=50,"E","Не удовл")))))))))))))</f>
-        <v>Не удовл</v>
+        <f t="shared" si="3"/>
+        <v>D</v>
       </c>
       <c r="AE5" s="19" t="str">
         <f xml:space="preserve"> IF(AA5&gt;=AB5,"Зачет","Не зачет")</f>
@@ -1560,31 +1620,41 @@
       <c r="O6" s="3">
         <v>1</v>
       </c>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
+      <c r="P6" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="24">
+        <v>1</v>
+      </c>
+      <c r="R6" s="65">
+        <v>12</v>
+      </c>
+      <c r="S6" s="21">
+        <v>1</v>
+      </c>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
-      <c r="Z6" s="24"/>
+      <c r="Z6" s="24">
+        <v>24</v>
+      </c>
       <c r="AA6" s="6">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="AB6" s="6">
         <v>85</v>
       </c>
       <c r="AC6" s="4" t="str">
         <f t="shared" ref="AC6:AC11" si="5">IF(AA6&gt;=87,"отл",IF(AA6&gt;=73,"хорошо",IF(AA6&gt;=50,"удовл","Не удовл")))</f>
-        <v>Не удовл</v>
+        <v>удовл</v>
       </c>
       <c r="AD6" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Не удовл</v>
+        <f t="shared" si="3"/>
+        <v>C-</v>
       </c>
       <c r="AE6" s="19" t="str">
         <f t="shared" ref="AE6:AE7" si="6" xml:space="preserve"> IF(AA6&gt;=AB6,"Зачет","Не зачет")</f>
@@ -1592,7 +1662,7 @@
       </c>
     </row>
     <row r="7" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="51" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="22">
@@ -1637,20 +1707,30 @@
       <c r="O7" s="3">
         <v>0</v>
       </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="65">
+        <v>12</v>
+      </c>
+      <c r="S7" s="21">
+        <v>0</v>
+      </c>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
-      <c r="Z7" s="24"/>
+      <c r="Z7" s="24">
+        <v>24</v>
+      </c>
       <c r="AA7" s="6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="AB7" s="6">
         <v>85</v>
@@ -1660,7 +1740,7 @@
         <v>Не удовл</v>
       </c>
       <c r="AD7" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Не удовл</v>
       </c>
       <c r="AE7" s="19" t="str">
@@ -1705,7 +1785,7 @@
       <c r="L8" s="3">
         <v>1</v>
       </c>
-      <c r="M8" s="53">
+      <c r="M8" s="52">
         <v>10</v>
       </c>
       <c r="N8" s="3">
@@ -1714,31 +1794,41 @@
       <c r="O8" s="3">
         <v>1</v>
       </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
+      <c r="P8" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="24">
+        <v>1</v>
+      </c>
+      <c r="R8" s="65">
+        <v>12</v>
+      </c>
+      <c r="S8" s="21">
+        <v>1</v>
+      </c>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
-      <c r="Z8" s="24"/>
+      <c r="Z8" s="24">
+        <v>24</v>
+      </c>
       <c r="AA8" s="6">
         <f t="shared" ref="AA8:AA19" si="7">SUM(C8:Z8)</f>
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="AB8" s="6">
         <v>85</v>
       </c>
       <c r="AC8" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>Не удовл</v>
+        <v>удовл</v>
       </c>
       <c r="AD8" s="19" t="str">
-        <f>IF(AA8&gt;=98,"А+",IF(AA8&gt;=93,"А",IF(AA8&gt;=90,"А-",IF(AA8&gt;=87,"B+",IF(AA8&gt;=83,"B",IF(AA8&gt;=80,"B-",IF(AA8&gt;=77,"C+",IF(AA8&gt;=73,"B",IF(AA8&gt;=70,"C-",IF(AA8&gt;=67,"D+",IF(AA8&gt;=63,"D",IF(AA8&gt;=60,"D-",IF(AA8&gt;=50,"E","Не удовл")))))))))))))</f>
-        <v>Не удовл</v>
+        <f t="shared" si="3"/>
+        <v>C-</v>
       </c>
       <c r="AE8" s="19" t="str">
         <f xml:space="preserve"> IF(AA8&gt;=AB8,"Зачет","Не зачет")</f>
@@ -1782,40 +1872,50 @@
       <c r="L9" s="3">
         <v>1</v>
       </c>
-      <c r="M9" s="53">
+      <c r="M9" s="52">
         <v>11</v>
       </c>
       <c r="N9" s="3">
         <v>1</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="P9" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="24">
+        <v>1</v>
+      </c>
+      <c r="R9" s="65">
+        <v>12</v>
+      </c>
+      <c r="S9" s="21">
+        <v>0</v>
+      </c>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
-      <c r="Z9" s="24"/>
+      <c r="Z9" s="24">
+        <v>24</v>
+      </c>
       <c r="AA9" s="6">
         <f t="shared" si="7"/>
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="AB9" s="6">
         <v>85</v>
       </c>
       <c r="AC9" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>Не удовл</v>
+        <v>удовл</v>
       </c>
       <c r="AD9" s="19" t="str">
-        <f>IF(AA9&gt;=98,"А+",IF(AA9&gt;=93,"А",IF(AA9&gt;=90,"А-",IF(AA9&gt;=87,"B+",IF(AA9&gt;=83,"B",IF(AA9&gt;=80,"B-",IF(AA9&gt;=77,"C+",IF(AA9&gt;=73,"C",IF(AA9&gt;=70,"C-",IF(AA9&gt;=67,"D+",IF(AA9&gt;=63,"D",IF(AA9&gt;=60,"D-",IF(AA9&gt;=50,"E","Не удовл")))))))))))))</f>
-        <v>Не удовл</v>
+        <f t="shared" si="3"/>
+        <v>C-</v>
       </c>
       <c r="AE9" s="4" t="str">
         <f xml:space="preserve"> IF(AA9&gt;=AB9,"Зачет","Не зачет")</f>
@@ -1847,7 +1947,7 @@
       <c r="H10" s="3">
         <v>1</v>
       </c>
-      <c r="I10" s="53">
+      <c r="I10" s="52">
         <v>7</v>
       </c>
       <c r="J10" s="3">
@@ -1868,31 +1968,41 @@
       <c r="O10" s="3">
         <v>0</v>
       </c>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
+      <c r="P10" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="24">
+        <v>1</v>
+      </c>
+      <c r="R10" s="65">
+        <v>12</v>
+      </c>
+      <c r="S10" s="21">
+        <v>1</v>
+      </c>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
-      <c r="Z10" s="24"/>
+      <c r="Z10" s="24">
+        <v>24</v>
+      </c>
       <c r="AA10" s="6">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="AB10" s="6">
         <v>85</v>
       </c>
       <c r="AC10" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>Не удовл</v>
+        <v>удовл</v>
       </c>
       <c r="AD10" s="19" t="str">
-        <f>IF(AA10&gt;=98,"А+",IF(AA10&gt;=93,"А",IF(AA10&gt;=90,"А-",IF(AA10&gt;=87,"B+",IF(AA10&gt;=83,"B",IF(AA10&gt;=80,"B-",IF(AA10&gt;=77,"C+",IF(AA10&gt;=73,"C",IF(AA10&gt;=70,"C-",IF(AA10&gt;=67,"D+",IF(AA10&gt;=63,"D",IF(AA10&gt;=60,"D-",IF(AA10&gt;=50,"E","Не удовл")))))))))))))</f>
-        <v>Не удовл</v>
+        <f t="shared" si="3"/>
+        <v>D-</v>
       </c>
       <c r="AE10" s="4" t="str">
         <f t="shared" ref="AE10" si="8" xml:space="preserve"> IF(AA10&gt;=AB10,"Зачет","Не зачет")</f>
@@ -1900,7 +2010,7 @@
       </c>
     </row>
     <row r="11" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="49" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="22">
@@ -1945,20 +2055,30 @@
       <c r="O11" s="3">
         <v>0</v>
       </c>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
+      <c r="P11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0</v>
+      </c>
+      <c r="R11" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="S11" s="21">
+        <v>0</v>
+      </c>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-      <c r="Z11" s="24"/>
+      <c r="Z11" s="24">
+        <v>24</v>
+      </c>
       <c r="AA11" s="35">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="AB11" s="35">
         <v>85</v>
@@ -1968,7 +2088,7 @@
         <v>Не удовл</v>
       </c>
       <c r="AD11" s="19" t="str">
-        <f t="shared" ref="AD11:AD13" si="9">IF(AA11&gt;=98,"А+",IF(AA11&gt;=93,"А",IF(AA11&gt;=90,"А-",IF(AA11&gt;=87,"B+",IF(AA11&gt;=83,"B",IF(AA11&gt;=80,"B-",IF(AA11&gt;=77,"C+",IF(AA11&gt;=73,"C",IF(AA11&gt;=70,"C-",IF(AA11&gt;=67,"D+",IF(AA11&gt;=63,"D",IF(AA11&gt;=60,"D-",IF(AA11&gt;=50,"E","Не удовл")))))))))))))</f>
+        <f t="shared" si="3"/>
         <v>Не удовл</v>
       </c>
       <c r="AE11" s="19" t="str">
@@ -2013,7 +2133,7 @@
       <c r="L12" s="39">
         <v>1</v>
       </c>
-      <c r="M12" s="54">
+      <c r="M12" s="53">
         <v>11</v>
       </c>
       <c r="N12" s="39">
@@ -2022,34 +2142,44 @@
       <c r="O12" s="39">
         <v>1</v>
       </c>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="39"/>
+      <c r="P12" s="39">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="39">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <v>12</v>
+      </c>
+      <c r="S12" s="39">
+        <v>0</v>
+      </c>
       <c r="T12" s="39"/>
       <c r="U12" s="39"/>
       <c r="V12" s="39"/>
       <c r="W12" s="39"/>
       <c r="X12" s="39"/>
       <c r="Y12" s="39"/>
-      <c r="Z12" s="40"/>
+      <c r="Z12" s="40">
+        <v>24</v>
+      </c>
       <c r="AA12" s="6">
         <f t="shared" si="7"/>
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="AB12" s="6">
         <v>85</v>
       </c>
       <c r="AC12" s="19" t="str">
-        <f t="shared" ref="AC12:AC22" si="10">IF(AA12&gt;=87,"отл",IF(AA12&gt;=73,"хорошо",IF(AA12&gt;=50,"удовл","Не удовл")))</f>
-        <v>Не удовл</v>
+        <f t="shared" ref="AC12:AC22" si="9">IF(AA12&gt;=87,"отл",IF(AA12&gt;=73,"хорошо",IF(AA12&gt;=50,"удовл","Не удовл")))</f>
+        <v>удовл</v>
       </c>
       <c r="AD12" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v>Не удовл</v>
+        <f t="shared" si="3"/>
+        <v>C-</v>
       </c>
       <c r="AE12" s="19" t="str">
-        <f t="shared" ref="AE12:AE13" si="11" xml:space="preserve"> IF(AA12&gt;=AB12,"Зачет","Не зачет")</f>
+        <f t="shared" ref="AE12:AE13" si="10" xml:space="preserve"> IF(AA12&gt;=AB12,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
     </row>
@@ -2099,34 +2229,44 @@
       <c r="O13" s="3">
         <v>1</v>
       </c>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
+      <c r="P13" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1</v>
+      </c>
+      <c r="R13" s="3">
+        <v>12</v>
+      </c>
+      <c r="S13" s="3">
+        <v>1</v>
+      </c>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
-      <c r="Z13" s="24"/>
+      <c r="Z13" s="24">
+        <v>24</v>
+      </c>
       <c r="AA13" s="6">
         <f t="shared" si="7"/>
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="AB13" s="6">
         <v>85</v>
       </c>
       <c r="AC13" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>хорошо</v>
+      </c>
+      <c r="AD13" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>C</v>
+      </c>
+      <c r="AE13" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>Не удовл</v>
-      </c>
-      <c r="AD13" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v>Не удовл</v>
-      </c>
-      <c r="AE13" s="19" t="str">
-        <f t="shared" si="11"/>
         <v>Не зачет</v>
       </c>
     </row>
@@ -2167,7 +2307,7 @@
       <c r="L14" s="3">
         <v>1</v>
       </c>
-      <c r="M14" s="53">
+      <c r="M14" s="52">
         <v>10</v>
       </c>
       <c r="N14" s="3">
@@ -2176,31 +2316,41 @@
       <c r="O14" s="3">
         <v>1</v>
       </c>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>1</v>
+      </c>
+      <c r="R14" s="3">
+        <v>12</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
-      <c r="Z14" s="24"/>
+      <c r="Z14" s="24">
+        <v>24</v>
+      </c>
       <c r="AA14" s="6">
         <f t="shared" si="7"/>
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="AB14" s="6">
         <v>85</v>
       </c>
       <c r="AC14" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>Не удовл</v>
+        <f t="shared" si="9"/>
+        <v>удовл</v>
       </c>
       <c r="AD14" s="19" t="str">
-        <f>IF(AA14&gt;=98,"А+",IF(AA14&gt;=93,"А",IF(AA14&gt;=90,"А-",IF(AA14&gt;=87,"B+",IF(AA14&gt;=83,"B",IF(AA14&gt;=80,"B-",IF(AA14&gt;=77,"C+",IF(AA14&gt;=73,"B",IF(AA14&gt;=70,"C-",IF(AA14&gt;=67,"D+",IF(AA14&gt;=63,"D",IF(AA14&gt;=60,"D-",IF(AA14&gt;=50,"E","Не удовл")))))))))))))</f>
-        <v>Не удовл</v>
+        <f t="shared" si="3"/>
+        <v>C-</v>
       </c>
       <c r="AE14" s="19" t="str">
         <f xml:space="preserve"> IF(AA14&gt;=AB14,"Зачет","Не зачет")</f>
@@ -2232,8 +2382,8 @@
       <c r="H15" s="3">
         <v>1</v>
       </c>
-      <c r="I15" s="49">
-        <v>4</v>
+      <c r="I15" s="3">
+        <v>6</v>
       </c>
       <c r="J15" s="3">
         <v>1</v>
@@ -2244,7 +2394,7 @@
       <c r="L15" s="3">
         <v>1</v>
       </c>
-      <c r="M15" s="49">
+      <c r="M15" s="48">
         <v>7</v>
       </c>
       <c r="N15" s="3">
@@ -2253,31 +2403,41 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
+      <c r="P15" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>12</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
-      <c r="Z15" s="24"/>
+      <c r="Z15" s="24">
+        <v>24</v>
+      </c>
       <c r="AA15" s="6">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="AB15" s="6">
         <v>85</v>
       </c>
       <c r="AC15" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>Не удовл</v>
+        <f t="shared" si="9"/>
+        <v>удовл</v>
       </c>
       <c r="AD15" s="19" t="str">
-        <f>IF(AA15&gt;=98,"А+",IF(AA15&gt;=93,"А",IF(AA15&gt;=90,"А-",IF(AA15&gt;=87,"B+",IF(AA15&gt;=83,"B",IF(AA15&gt;=80,"B-",IF(AA15&gt;=77,"C+",IF(AA15&gt;=73,"C",IF(AA15&gt;=70,"C-",IF(AA15&gt;=67,"D+",IF(AA15&gt;=63,"D",IF(AA15&gt;=60,"D-",IF(AA15&gt;=50,"E","Не удовл")))))))))))))</f>
-        <v>Не удовл</v>
+        <f t="shared" si="3"/>
+        <v>D</v>
       </c>
       <c r="AE15" s="4" t="str">
         <f xml:space="preserve"> IF(AA15&gt;=AB15,"Зачет","Не зачет")</f>
@@ -2321,8 +2481,8 @@
       <c r="L16" s="3">
         <v>1</v>
       </c>
-      <c r="M16" s="49">
-        <v>4</v>
+      <c r="M16" s="48">
+        <v>7</v>
       </c>
       <c r="N16" s="3">
         <v>0</v>
@@ -2330,34 +2490,44 @@
       <c r="O16" s="3">
         <v>1</v>
       </c>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
+      <c r="P16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>1</v>
+      </c>
+      <c r="R16" s="3">
+        <v>12</v>
+      </c>
+      <c r="S16" s="3">
+        <v>0</v>
+      </c>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-      <c r="Z16" s="24"/>
+      <c r="Z16" s="24">
+        <v>24</v>
+      </c>
       <c r="AA16" s="6">
         <f t="shared" si="7"/>
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="AB16" s="6">
         <v>85</v>
       </c>
       <c r="AC16" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>Не удовл</v>
+        <f t="shared" si="9"/>
+        <v>удовл</v>
       </c>
       <c r="AD16" s="19" t="str">
-        <f>IF(AA16&gt;=98,"А+",IF(AA16&gt;=93,"А",IF(AA16&gt;=90,"А-",IF(AA16&gt;=87,"B+",IF(AA16&gt;=83,"B",IF(AA16&gt;=80,"B-",IF(AA16&gt;=77,"C+",IF(AA16&gt;=73,"C",IF(AA16&gt;=70,"C-",IF(AA16&gt;=67,"D+",IF(AA16&gt;=63,"D",IF(AA16&gt;=60,"D-",IF(AA16&gt;=50,"E","Не удовл")))))))))))))</f>
-        <v>Не удовл</v>
+        <f t="shared" si="3"/>
+        <v>D</v>
       </c>
       <c r="AE16" s="4" t="str">
-        <f t="shared" ref="AE16" si="12" xml:space="preserve"> IF(AA16&gt;=AB16,"Зачет","Не зачет")</f>
+        <f t="shared" ref="AE16" si="11" xml:space="preserve"> IF(AA16&gt;=AB16,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
     </row>
@@ -2407,31 +2577,41 @@
       <c r="O17" s="3">
         <v>1</v>
       </c>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
+      <c r="P17" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1</v>
+      </c>
+      <c r="R17" s="3">
+        <v>12</v>
+      </c>
+      <c r="S17" s="3">
+        <v>1</v>
+      </c>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
-      <c r="Z17" s="24"/>
+      <c r="Z17" s="24">
+        <v>24</v>
+      </c>
       <c r="AA17" s="6">
         <f t="shared" si="7"/>
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="AB17" s="6">
         <v>85</v>
       </c>
       <c r="AC17" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>Не удовл</v>
+        <f t="shared" si="9"/>
+        <v>хорошо</v>
       </c>
       <c r="AD17" s="19" t="str">
-        <f t="shared" ref="AD17:AD19" si="13">IF(AA17&gt;=98,"А+",IF(AA17&gt;=93,"А",IF(AA17&gt;=90,"А-",IF(AA17&gt;=87,"B+",IF(AA17&gt;=83,"B",IF(AA17&gt;=80,"B-",IF(AA17&gt;=77,"C+",IF(AA17&gt;=73,"C",IF(AA17&gt;=70,"C-",IF(AA17&gt;=67,"D+",IF(AA17&gt;=63,"D",IF(AA17&gt;=60,"D-",IF(AA17&gt;=50,"E","Не удовл")))))))))))))</f>
-        <v>Не удовл</v>
+        <f t="shared" si="3"/>
+        <v>C</v>
       </c>
       <c r="AE17" s="19" t="str">
         <f xml:space="preserve"> IF(AA17&gt;=AB17,"Зачет","Не зачет")</f>
@@ -2484,34 +2664,44 @@
       <c r="O18" s="3">
         <v>0</v>
       </c>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
+      <c r="P18" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>1</v>
+      </c>
+      <c r="R18" s="3">
+        <v>12</v>
+      </c>
+      <c r="S18" s="3">
+        <v>1</v>
+      </c>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
-      <c r="Z18" s="24"/>
+      <c r="Z18" s="24">
+        <v>24</v>
+      </c>
       <c r="AA18" s="6">
         <f t="shared" si="7"/>
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="AB18" s="6">
         <v>85</v>
       </c>
       <c r="AC18" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>Не удовл</v>
+        <f t="shared" si="9"/>
+        <v>удовл</v>
       </c>
       <c r="AD18" s="19" t="str">
-        <f t="shared" si="13"/>
-        <v>Не удовл</v>
+        <f t="shared" si="3"/>
+        <v>C-</v>
       </c>
       <c r="AE18" s="19" t="str">
-        <f t="shared" ref="AE18:AE19" si="14" xml:space="preserve"> IF(AA18&gt;=AB18,"Зачет","Не зачет")</f>
+        <f t="shared" ref="AE18:AE19" si="12" xml:space="preserve"> IF(AA18&gt;=AB18,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
     </row>
@@ -2552,7 +2742,7 @@
       <c r="L19" s="3">
         <v>0</v>
       </c>
-      <c r="M19" s="53">
+      <c r="M19" s="52">
         <v>9</v>
       </c>
       <c r="N19" s="3">
@@ -2561,34 +2751,44 @@
       <c r="O19" s="3">
         <v>1</v>
       </c>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
+      <c r="P19" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>1</v>
+      </c>
+      <c r="R19" s="3">
+        <v>12</v>
+      </c>
+      <c r="S19" s="3">
+        <v>1</v>
+      </c>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-      <c r="Z19" s="24"/>
+      <c r="Z19" s="24">
+        <v>24</v>
+      </c>
       <c r="AA19" s="6">
         <f t="shared" si="7"/>
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="AB19" s="6">
         <v>85</v>
       </c>
       <c r="AC19" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>Не удовл</v>
+        <f t="shared" si="9"/>
+        <v>удовл</v>
       </c>
       <c r="AD19" s="19" t="str">
-        <f t="shared" si="13"/>
-        <v>Не удовл</v>
+        <f t="shared" si="3"/>
+        <v>D</v>
       </c>
       <c r="AE19" s="19" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Не зачет</v>
       </c>
     </row>
@@ -2629,7 +2829,7 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="49">
+      <c r="M20" s="48">
         <v>7</v>
       </c>
       <c r="N20" s="3">
@@ -2638,31 +2838,41 @@
       <c r="O20" s="3">
         <v>1</v>
       </c>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
+      <c r="P20" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>1</v>
+      </c>
+      <c r="R20" s="3">
+        <v>12</v>
+      </c>
+      <c r="S20" s="3">
+        <v>1</v>
+      </c>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
-      <c r="Z20" s="24"/>
+      <c r="Z20" s="24">
+        <v>24</v>
+      </c>
       <c r="AA20" s="6">
-        <f t="shared" ref="AA20:AA22" si="15">SUM(C20:Z20)</f>
-        <v>28</v>
+        <f t="shared" ref="AA20:AA22" si="13">SUM(C20:Z20)</f>
+        <v>67</v>
       </c>
       <c r="AB20" s="6">
         <v>85</v>
       </c>
       <c r="AC20" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>Не удовл</v>
+        <f t="shared" si="9"/>
+        <v>удовл</v>
       </c>
       <c r="AD20" s="19" t="str">
-        <f>IF(AA20&gt;=98,"А+",IF(AA20&gt;=93,"А",IF(AA20&gt;=90,"А-",IF(AA20&gt;=87,"B+",IF(AA20&gt;=83,"B",IF(AA20&gt;=80,"B-",IF(AA20&gt;=77,"C+",IF(AA20&gt;=73,"B",IF(AA20&gt;=70,"C-",IF(AA20&gt;=67,"D+",IF(AA20&gt;=63,"D",IF(AA20&gt;=60,"D-",IF(AA20&gt;=50,"E","Не удовл")))))))))))))</f>
-        <v>Не удовл</v>
+        <f t="shared" si="3"/>
+        <v>D+</v>
       </c>
       <c r="AE20" s="19" t="str">
         <f xml:space="preserve"> IF(AA20&gt;=AB20,"Зачет","Не зачет")</f>
@@ -2706,7 +2916,7 @@
       <c r="L21" s="3">
         <v>1</v>
       </c>
-      <c r="M21" s="49">
+      <c r="M21" s="48">
         <v>9</v>
       </c>
       <c r="N21" s="3">
@@ -2715,31 +2925,41 @@
       <c r="O21" s="3">
         <v>1</v>
       </c>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>1</v>
+      </c>
+      <c r="R21" s="3">
+        <v>12</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
-      <c r="Z21" s="24"/>
+      <c r="Z21" s="24">
+        <v>24</v>
+      </c>
       <c r="AA21" s="6">
-        <f t="shared" si="15"/>
-        <v>27</v>
+        <f t="shared" si="13"/>
+        <v>64</v>
       </c>
       <c r="AB21" s="6">
         <v>85</v>
       </c>
       <c r="AC21" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>Не удовл</v>
+        <f t="shared" si="9"/>
+        <v>удовл</v>
       </c>
       <c r="AD21" s="19" t="str">
-        <f>IF(AA21&gt;=98,"А+",IF(AA21&gt;=93,"А",IF(AA21&gt;=90,"А-",IF(AA21&gt;=87,"B+",IF(AA21&gt;=83,"B",IF(AA21&gt;=80,"B-",IF(AA21&gt;=77,"C+",IF(AA21&gt;=73,"C",IF(AA21&gt;=70,"C-",IF(AA21&gt;=67,"D+",IF(AA21&gt;=63,"D",IF(AA21&gt;=60,"D-",IF(AA21&gt;=50,"E","Не удовл")))))))))))))</f>
-        <v>Не удовл</v>
+        <f t="shared" si="3"/>
+        <v>D</v>
       </c>
       <c r="AE21" s="4" t="str">
         <f xml:space="preserve"> IF(AA21&gt;=AB21,"Зачет","Не зачет")</f>
@@ -2783,7 +3003,7 @@
       <c r="L22" s="45">
         <v>1</v>
       </c>
-      <c r="M22" s="51">
+      <c r="M22" s="50">
         <v>9</v>
       </c>
       <c r="N22" s="45">
@@ -2792,78 +3012,88 @@
       <c r="O22" s="45">
         <v>0</v>
       </c>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
+      <c r="P22" s="45">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="45">
+        <v>1</v>
+      </c>
+      <c r="R22" s="45">
+        <v>12</v>
+      </c>
+      <c r="S22" s="45">
+        <v>1</v>
+      </c>
       <c r="T22" s="45"/>
       <c r="U22" s="45"/>
       <c r="V22" s="45"/>
       <c r="W22" s="45"/>
       <c r="X22" s="45"/>
       <c r="Y22" s="45"/>
-      <c r="Z22" s="46"/>
+      <c r="Z22" s="46">
+        <v>24</v>
+      </c>
       <c r="AA22" s="6">
-        <f t="shared" si="15"/>
-        <v>30</v>
+        <f t="shared" si="13"/>
+        <v>69</v>
       </c>
       <c r="AB22" s="6">
         <v>85</v>
       </c>
       <c r="AC22" s="47" t="str">
-        <f t="shared" si="10"/>
-        <v>Не удовл</v>
-      </c>
-      <c r="AD22" s="48" t="str">
-        <f>IF(AA22&gt;=98,"А+",IF(AA22&gt;=93,"А",IF(AA22&gt;=90,"А-",IF(AA22&gt;=87,"B+",IF(AA22&gt;=83,"B",IF(AA22&gt;=80,"B-",IF(AA22&gt;=77,"C+",IF(AA22&gt;=73,"C",IF(AA22&gt;=70,"C-",IF(AA22&gt;=67,"D+",IF(AA22&gt;=63,"D",IF(AA22&gt;=60,"D-",IF(AA22&gt;=50,"E","Не удовл")))))))))))))</f>
-        <v>Не удовл</v>
+        <f t="shared" si="9"/>
+        <v>удовл</v>
+      </c>
+      <c r="AD22" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>D+</v>
       </c>
       <c r="AE22" s="47" t="str">
-        <f t="shared" ref="AE22" si="16" xml:space="preserve"> IF(AA22&gt;=AB22,"Зачет","Не зачет")</f>
+        <f t="shared" ref="AE22" si="14" xml:space="preserve"> IF(AA22&gt;=AB22,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
     </row>
     <row r="23" spans="1:31" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
       <c r="B23" s="23"/>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="58"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="60" t="s">
+      <c r="D23" s="57"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="57" t="s">
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="K23" s="58"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="62" t="s">
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="O23" s="63"/>
-      <c r="P23" s="63"/>
-      <c r="Q23" s="63"/>
-      <c r="R23" s="65"/>
-      <c r="S23" s="62" t="s">
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="64"/>
+      <c r="S23" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="T23" s="63"/>
-      <c r="U23" s="65"/>
-      <c r="V23" s="62" t="s">
+      <c r="T23" s="62"/>
+      <c r="U23" s="64"/>
+      <c r="V23" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="W23" s="63"/>
-      <c r="X23" s="64"/>
-      <c r="Y23" s="55" t="s">
+      <c r="W23" s="62"/>
+      <c r="X23" s="63"/>
+      <c r="Y23" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="Z23" s="56"/>
+      <c r="Z23" s="55"/>
       <c r="AA23" s="6"/>
       <c r="AB23" s="5"/>
       <c r="AC23" s="7"/>
@@ -3261,7 +3491,7 @@
       <c r="AB36" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="J3Oui8UQQ5rNXHYwfbvcGP3x8KNXXW+/iPiiwOAhOSzsW203+Ku9i+B/8iEAe08DwHs0zOxTL2jfrrzPfCWUSQ==" saltValue="sIHRfyoXzClQyeeedw9l3Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+6pCB2W6e3EkiAgOMy6SzkBi7whKRoZOMrT16034YkahElfpvy+xAD9gL+BAEutxVcGwlxYcR3sd1WGU7kxTyA==" saltValue="hQHM9TszfzMJMSJ8AqfWZw==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
   <sortState ref="A2:A22">
     <sortCondition ref="A2"/>
   </sortState>
@@ -3274,22 +3504,32 @@
     <mergeCell ref="N23:R23"/>
     <mergeCell ref="J23:M23"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2:Z4 K5:Z7 C5:J11 D12:J20 C12:C21">
-    <cfRule type="cellIs" dxfId="3" priority="13" operator="equal">
+  <conditionalFormatting sqref="C5:J11 D12:J20 C12:C21 K6:Z6 S7:Z7 R7:R10 S2:Z2 R3:Z5 C2:Q4 K5:Q5 K7:Q7">
+    <cfRule type="cellIs" dxfId="5" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:Z13">
+  <conditionalFormatting sqref="S8:Z13 K8:Q13">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14:Q19 S14:Z19 R12:R21">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:Z22 K20:Q20 D21:Q21 S20:Z21">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:Z19">
+  <conditionalFormatting sqref="R11">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22:Z22 K20:Z20 D21:Z21">
+  <conditionalFormatting sqref="R2">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/Баллы 2019.xlsx
+++ b/Баллы 2019.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>Варианты</t>
   </si>
@@ -1098,10 +1098,10 @@
   <dimension ref="A1:AE36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="23" topLeftCell="L24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="23" topLeftCell="M24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="S23" sqref="S23:U23"/>
+      <selection pane="bottomRight" activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1713,8 +1713,8 @@
       <c r="Q7" s="3">
         <v>0</v>
       </c>
-      <c r="R7" s="65">
-        <v>12</v>
+      <c r="R7" s="65" t="s">
+        <v>41</v>
       </c>
       <c r="S7" s="21">
         <v>0</v>
@@ -1730,7 +1730,7 @@
       </c>
       <c r="AA7" s="6">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="AB7" s="6">
         <v>85</v>
@@ -1891,7 +1891,7 @@
         <v>12</v>
       </c>
       <c r="S9" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
@@ -1904,7 +1904,7 @@
       </c>
       <c r="AA9" s="6">
         <f t="shared" si="7"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB9" s="6">
         <v>85</v>
@@ -1960,7 +1960,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N10" s="3">
         <v>1</v>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="AA10" s="6">
         <f t="shared" si="7"/>
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="AB10" s="6">
         <v>85</v>
@@ -2002,7 +2002,7 @@
       </c>
       <c r="AD10" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>D-</v>
+        <v>D+</v>
       </c>
       <c r="AE10" s="4" t="str">
         <f t="shared" ref="AE10" si="8" xml:space="preserve"> IF(AA10&gt;=AB10,"Зачет","Не зачет")</f>
@@ -3491,7 +3491,7 @@
       <c r="AB36" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+6pCB2W6e3EkiAgOMy6SzkBi7whKRoZOMrT16034YkahElfpvy+xAD9gL+BAEutxVcGwlxYcR3sd1WGU7kxTyA==" saltValue="hQHM9TszfzMJMSJ8AqfWZw==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="q3d2iw4cEX1xeyS/21e28+lp9jshIYOvIJR7nblgB02RNQCWyceJXbNYYt+5gkcXQIpoESqbMKB8c8RLJlqOUg==" saltValue="+LTo7ldCnVrJGGiR2rWFHw==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
   <sortState ref="A2:A22">
     <sortCondition ref="A2"/>
   </sortState>
@@ -3504,7 +3504,7 @@
     <mergeCell ref="N23:R23"/>
     <mergeCell ref="J23:M23"/>
   </mergeCells>
-  <conditionalFormatting sqref="C5:J11 D12:J20 C12:C21 K6:Z6 S7:Z7 R7:R10 S2:Z2 R3:Z5 C2:Q4 K5:Q5 K7:Q7">
+  <conditionalFormatting sqref="C5:J11 D12:J20 C12:C21 R7:R10 S2:Z2 R3:Z5 C2:Q4 K5:Q5 K6:Z7">
     <cfRule type="cellIs" dxfId="5" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/Баллы 2019.xlsx
+++ b/Баллы 2019.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t>Варианты</t>
   </si>
@@ -709,6 +709,12 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -741,18 +747,61 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1098,10 +1147,10 @@
   <dimension ref="A1:AE36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="23" topLeftCell="M24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="23" topLeftCell="R24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="S10" sqref="S10"/>
+      <selection pane="bottomRight" activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1284,9 +1333,15 @@
       <c r="S2" s="21">
         <v>1</v>
       </c>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
+      <c r="T2" s="3">
+        <v>1</v>
+      </c>
+      <c r="U2" s="3">
+        <v>12</v>
+      </c>
+      <c r="V2" s="3">
+        <v>1</v>
+      </c>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
@@ -1295,22 +1350,22 @@
       </c>
       <c r="AA2" s="27">
         <f t="shared" ref="AA2:AA7" si="0">SUM(C2:Z2)</f>
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="AB2" s="27">
         <v>85</v>
       </c>
       <c r="AC2" s="28" t="str">
         <f t="shared" ref="AC2:AC3" si="1">IF(AA2&gt;=87,"отл",IF(AA2&gt;=73,"хорошо",IF(AA2&gt;=50,"удовл","Не удовл")))</f>
-        <v>хорошо</v>
+        <v>отл</v>
       </c>
       <c r="AD2" s="28" t="str">
         <f>IF(AA2&gt;=98,"А+",IF(AA2&gt;=93,"А",IF(AA2&gt;=90,"А-",IF(AA2&gt;=87,"B+",IF(AA2&gt;=83,"B",IF(AA2&gt;=80,"B-",IF(AA2&gt;=77,"C+",IF(AA2&gt;=73,"C",IF(AA2&gt;=70,"C-",IF(AA2&gt;=67,"D+",IF(AA2&gt;=63,"D",IF(AA2&gt;=60,"D-",IF(AA2&gt;=50,"E","Не удовл")))))))))))))</f>
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="AE2" s="28" t="str">
         <f xml:space="preserve"> IF(AA2&gt;=AB2,"Зачет","Не зачет")</f>
-        <v>Не зачет</v>
+        <v>Зачет</v>
       </c>
     </row>
     <row r="3" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1365,24 +1420,34 @@
       <c r="Q3" s="3">
         <v>0</v>
       </c>
-      <c r="R3" s="65" t="s">
+      <c r="R3" s="54" t="s">
         <v>41</v>
       </c>
       <c r="S3" s="21">
         <v>0</v>
       </c>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
+      <c r="T3" s="3">
+        <v>0</v>
+      </c>
+      <c r="U3" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="V3" s="21">
+        <v>0</v>
+      </c>
+      <c r="W3" s="3">
+        <v>0</v>
+      </c>
+      <c r="X3" s="54" t="s">
+        <v>41</v>
+      </c>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="24">
-        <v>24</v>
+      <c r="Z3" s="54" t="s">
+        <v>41</v>
       </c>
       <c r="AA3" s="6">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="AB3" s="6">
         <v>85</v>
@@ -1452,24 +1517,34 @@
       <c r="Q4" s="3">
         <v>0</v>
       </c>
-      <c r="R4" s="65" t="s">
+      <c r="R4" s="54" t="s">
         <v>41</v>
       </c>
       <c r="S4" s="21">
         <v>0</v>
       </c>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
+      <c r="T4" s="3">
+        <v>0</v>
+      </c>
+      <c r="U4" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="V4" s="21">
+        <v>0</v>
+      </c>
+      <c r="W4" s="3">
+        <v>0</v>
+      </c>
+      <c r="X4" s="54" t="s">
+        <v>41</v>
+      </c>
       <c r="Y4" s="3"/>
-      <c r="Z4" s="24">
-        <v>24</v>
+      <c r="Z4" s="54" t="s">
+        <v>41</v>
       </c>
       <c r="AA4" s="6">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="AB4" s="6">
         <v>85</v>
@@ -1539,13 +1614,15 @@
       <c r="Q5" s="3">
         <v>0</v>
       </c>
-      <c r="R5" s="65">
+      <c r="R5" s="54">
         <v>12</v>
       </c>
       <c r="S5" s="21">
         <v>0</v>
       </c>
-      <c r="T5" s="3"/>
+      <c r="T5" s="3">
+        <v>0</v>
+      </c>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
@@ -1626,15 +1703,21 @@
       <c r="Q6" s="24">
         <v>1</v>
       </c>
-      <c r="R6" s="65">
+      <c r="R6" s="54">
         <v>12</v>
       </c>
       <c r="S6" s="21">
         <v>1</v>
       </c>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
+      <c r="T6" s="3">
+        <v>1</v>
+      </c>
+      <c r="U6" s="3">
+        <v>11</v>
+      </c>
+      <c r="V6" s="3">
+        <v>1</v>
+      </c>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
@@ -1643,22 +1726,22 @@
       </c>
       <c r="AA6" s="6">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="AB6" s="6">
         <v>85</v>
       </c>
       <c r="AC6" s="4" t="str">
         <f t="shared" ref="AC6:AC11" si="5">IF(AA6&gt;=87,"отл",IF(AA6&gt;=73,"хорошо",IF(AA6&gt;=50,"удовл","Не удовл")))</f>
-        <v>удовл</v>
+        <v>хорошо</v>
       </c>
       <c r="AD6" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>C-</v>
+        <v>B</v>
       </c>
       <c r="AE6" s="19" t="str">
         <f t="shared" ref="AE6:AE7" si="6" xml:space="preserve"> IF(AA6&gt;=AB6,"Зачет","Не зачет")</f>
-        <v>Не зачет</v>
+        <v>Зачет</v>
       </c>
     </row>
     <row r="7" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1713,24 +1796,34 @@
       <c r="Q7" s="3">
         <v>0</v>
       </c>
-      <c r="R7" s="65" t="s">
+      <c r="R7" s="54" t="s">
         <v>41</v>
       </c>
       <c r="S7" s="21">
         <v>0</v>
       </c>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
+      <c r="T7" s="3">
+        <v>0</v>
+      </c>
+      <c r="U7" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="V7" s="21">
+        <v>0</v>
+      </c>
+      <c r="W7" s="3">
+        <v>0</v>
+      </c>
+      <c r="X7" s="54" t="s">
+        <v>41</v>
+      </c>
       <c r="Y7" s="3"/>
-      <c r="Z7" s="24">
-        <v>24</v>
+      <c r="Z7" s="54" t="s">
+        <v>41</v>
       </c>
       <c r="AA7" s="6">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="AB7" s="6">
         <v>85</v>
@@ -1800,15 +1893,21 @@
       <c r="Q8" s="24">
         <v>1</v>
       </c>
-      <c r="R8" s="65">
+      <c r="R8" s="54">
         <v>12</v>
       </c>
       <c r="S8" s="21">
         <v>1</v>
       </c>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
+      <c r="T8" s="3">
+        <v>1</v>
+      </c>
+      <c r="U8" s="48">
+        <v>8</v>
+      </c>
+      <c r="V8" s="3">
+        <v>1</v>
+      </c>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
@@ -1817,18 +1916,18 @@
       </c>
       <c r="AA8" s="6">
         <f t="shared" ref="AA8:AA19" si="7">SUM(C8:Z8)</f>
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="AB8" s="6">
         <v>85</v>
       </c>
       <c r="AC8" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>удовл</v>
+        <v>хорошо</v>
       </c>
       <c r="AD8" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>C-</v>
+        <v>B-</v>
       </c>
       <c r="AE8" s="19" t="str">
         <f xml:space="preserve"> IF(AA8&gt;=AB8,"Зачет","Не зачет")</f>
@@ -1887,15 +1986,19 @@
       <c r="Q9" s="24">
         <v>1</v>
       </c>
-      <c r="R9" s="65">
+      <c r="R9" s="54">
         <v>12</v>
       </c>
       <c r="S9" s="21">
         <v>1</v>
       </c>
       <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
+      <c r="U9" s="3">
+        <v>12</v>
+      </c>
+      <c r="V9" s="3">
+        <v>1</v>
+      </c>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
@@ -1904,18 +2007,18 @@
       </c>
       <c r="AA9" s="6">
         <f t="shared" si="7"/>
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="AB9" s="6">
         <v>85</v>
       </c>
       <c r="AC9" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>удовл</v>
+        <v>хорошо</v>
       </c>
       <c r="AD9" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>C-</v>
+        <v>B</v>
       </c>
       <c r="AE9" s="4" t="str">
         <f xml:space="preserve"> IF(AA9&gt;=AB9,"Зачет","Не зачет")</f>
@@ -1974,15 +2077,19 @@
       <c r="Q10" s="24">
         <v>1</v>
       </c>
-      <c r="R10" s="65">
+      <c r="R10" s="54">
         <v>12</v>
       </c>
       <c r="S10" s="21">
         <v>1</v>
       </c>
-      <c r="T10" s="3"/>
+      <c r="T10" s="3">
+        <v>1</v>
+      </c>
       <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
+      <c r="V10" s="3">
+        <v>1</v>
+      </c>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
@@ -1991,7 +2098,7 @@
       </c>
       <c r="AA10" s="6">
         <f t="shared" si="7"/>
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AB10" s="6">
         <v>85</v>
@@ -2002,7 +2109,7 @@
       </c>
       <c r="AD10" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>D+</v>
+        <v>C-</v>
       </c>
       <c r="AE10" s="4" t="str">
         <f t="shared" ref="AE10" si="8" xml:space="preserve"> IF(AA10&gt;=AB10,"Зачет","Не зачет")</f>
@@ -2061,24 +2168,34 @@
       <c r="Q11" s="3">
         <v>0</v>
       </c>
-      <c r="R11" s="66" t="s">
+      <c r="R11" s="55" t="s">
         <v>41</v>
       </c>
       <c r="S11" s="21">
         <v>0</v>
       </c>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
+      <c r="T11" s="3">
+        <v>0</v>
+      </c>
+      <c r="U11" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="V11" s="21">
+        <v>0</v>
+      </c>
+      <c r="W11" s="3">
+        <v>0</v>
+      </c>
+      <c r="X11" s="54" t="s">
+        <v>41</v>
+      </c>
       <c r="Y11" s="3"/>
-      <c r="Z11" s="24">
-        <v>24</v>
+      <c r="Z11" s="54" t="s">
+        <v>41</v>
       </c>
       <c r="AA11" s="35">
         <f t="shared" si="7"/>
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="AB11" s="35">
         <v>85</v>
@@ -2154,9 +2271,15 @@
       <c r="S12" s="39">
         <v>0</v>
       </c>
-      <c r="T12" s="39"/>
-      <c r="U12" s="39"/>
-      <c r="V12" s="39"/>
+      <c r="T12" s="39">
+        <v>1</v>
+      </c>
+      <c r="U12" s="39">
+        <v>12</v>
+      </c>
+      <c r="V12" s="39">
+        <v>1</v>
+      </c>
       <c r="W12" s="39"/>
       <c r="X12" s="39"/>
       <c r="Y12" s="39"/>
@@ -2165,22 +2288,22 @@
       </c>
       <c r="AA12" s="6">
         <f t="shared" si="7"/>
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="AB12" s="6">
         <v>85</v>
       </c>
       <c r="AC12" s="19" t="str">
         <f t="shared" ref="AC12:AC22" si="9">IF(AA12&gt;=87,"отл",IF(AA12&gt;=73,"хорошо",IF(AA12&gt;=50,"удовл","Не удовл")))</f>
-        <v>удовл</v>
+        <v>хорошо</v>
       </c>
       <c r="AD12" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>C-</v>
+        <v>B</v>
       </c>
       <c r="AE12" s="19" t="str">
         <f t="shared" ref="AE12:AE13" si="10" xml:space="preserve"> IF(AA12&gt;=AB12,"Зачет","Не зачет")</f>
-        <v>Не зачет</v>
+        <v>Зачет</v>
       </c>
     </row>
     <row r="13" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2241,9 +2364,15 @@
       <c r="S13" s="3">
         <v>1</v>
       </c>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>12</v>
+      </c>
+      <c r="V13" s="3">
+        <v>1</v>
+      </c>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
@@ -2252,7 +2381,7 @@
       </c>
       <c r="AA13" s="6">
         <f t="shared" si="7"/>
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="AB13" s="6">
         <v>85</v>
@@ -2263,11 +2392,11 @@
       </c>
       <c r="AD13" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="AE13" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>Не зачет</v>
+        <v>Зачет</v>
       </c>
     </row>
     <row r="14" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2328,9 +2457,15 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
+      <c r="T14" s="3">
+        <v>1</v>
+      </c>
+      <c r="U14" s="3">
+        <v>12</v>
+      </c>
+      <c r="V14" s="3">
+        <v>1</v>
+      </c>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
@@ -2339,18 +2474,18 @@
       </c>
       <c r="AA14" s="6">
         <f t="shared" si="7"/>
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="AB14" s="6">
         <v>85</v>
       </c>
       <c r="AC14" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>удовл</v>
+        <v>хорошо</v>
       </c>
       <c r="AD14" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>C-</v>
+        <v>B</v>
       </c>
       <c r="AE14" s="19" t="str">
         <f xml:space="preserve"> IF(AA14&gt;=AB14,"Зачет","Не зачет")</f>
@@ -2415,9 +2550,13 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-      <c r="T15" s="3"/>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
       <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
+      <c r="V15" s="3">
+        <v>1</v>
+      </c>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
@@ -2426,7 +2565,7 @@
       </c>
       <c r="AA15" s="6">
         <f t="shared" si="7"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AB15" s="6">
         <v>85</v>
@@ -2502,9 +2641,15 @@
       <c r="S16" s="3">
         <v>0</v>
       </c>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
+      <c r="T16" s="3">
+        <v>0</v>
+      </c>
+      <c r="U16" s="3">
+        <v>12</v>
+      </c>
+      <c r="V16" s="3">
+        <v>1</v>
+      </c>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
@@ -2513,18 +2658,18 @@
       </c>
       <c r="AA16" s="6">
         <f t="shared" si="7"/>
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="AB16" s="6">
         <v>85</v>
       </c>
       <c r="AC16" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>удовл</v>
+        <v>хорошо</v>
       </c>
       <c r="AD16" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="AE16" s="4" t="str">
         <f t="shared" ref="AE16" si="11" xml:space="preserve"> IF(AA16&gt;=AB16,"Зачет","Не зачет")</f>
@@ -2589,9 +2734,15 @@
       <c r="S17" s="3">
         <v>1</v>
       </c>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
+      <c r="T17" s="3">
+        <v>1</v>
+      </c>
+      <c r="U17" s="3">
+        <v>12</v>
+      </c>
+      <c r="V17" s="3">
+        <v>1</v>
+      </c>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
@@ -2600,22 +2751,22 @@
       </c>
       <c r="AA17" s="6">
         <f t="shared" si="7"/>
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="AB17" s="6">
         <v>85</v>
       </c>
       <c r="AC17" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>хорошо</v>
+        <v>отл</v>
       </c>
       <c r="AD17" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="AE17" s="19" t="str">
         <f xml:space="preserve"> IF(AA17&gt;=AB17,"Зачет","Не зачет")</f>
-        <v>Не зачет</v>
+        <v>Зачет</v>
       </c>
     </row>
     <row r="18" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2676,9 +2827,15 @@
       <c r="S18" s="3">
         <v>1</v>
       </c>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
+      <c r="T18" s="3">
+        <v>1</v>
+      </c>
+      <c r="U18" s="3">
+        <v>12</v>
+      </c>
+      <c r="V18" s="3">
+        <v>1</v>
+      </c>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
@@ -2687,22 +2844,22 @@
       </c>
       <c r="AA18" s="6">
         <f t="shared" si="7"/>
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="AB18" s="6">
         <v>85</v>
       </c>
       <c r="AC18" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>удовл</v>
+        <v>хорошо</v>
       </c>
       <c r="AD18" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>C-</v>
+        <v>B</v>
       </c>
       <c r="AE18" s="19" t="str">
         <f t="shared" ref="AE18:AE19" si="12" xml:space="preserve"> IF(AA18&gt;=AB18,"Зачет","Не зачет")</f>
-        <v>Не зачет</v>
+        <v>Зачет</v>
       </c>
     </row>
     <row r="19" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2763,8 +2920,12 @@
       <c r="S19" s="3">
         <v>1</v>
       </c>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
+      <c r="T19" s="3">
+        <v>0</v>
+      </c>
+      <c r="U19" s="48">
+        <v>8</v>
+      </c>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
@@ -2774,18 +2935,18 @@
       </c>
       <c r="AA19" s="6">
         <f t="shared" si="7"/>
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="AB19" s="6">
         <v>85</v>
       </c>
       <c r="AC19" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>удовл</v>
+        <v>хорошо</v>
       </c>
       <c r="AD19" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="AE19" s="19" t="str">
         <f t="shared" si="12"/>
@@ -2850,9 +3011,13 @@
       <c r="S20" s="3">
         <v>1</v>
       </c>
-      <c r="T20" s="3"/>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
       <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
+      <c r="V20" s="3">
+        <v>1</v>
+      </c>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
@@ -2861,7 +3026,7 @@
       </c>
       <c r="AA20" s="6">
         <f t="shared" ref="AA20:AA22" si="13">SUM(C20:Z20)</f>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AB20" s="6">
         <v>85</v>
@@ -2937,7 +3102,9 @@
       <c r="S21" s="3">
         <v>0</v>
       </c>
-      <c r="T21" s="3"/>
+      <c r="T21" s="3">
+        <v>1</v>
+      </c>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
@@ -2948,7 +3115,7 @@
       </c>
       <c r="AA21" s="6">
         <f t="shared" si="13"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AB21" s="6">
         <v>85</v>
@@ -3024,9 +3191,15 @@
       <c r="S22" s="45">
         <v>1</v>
       </c>
-      <c r="T22" s="45"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="45"/>
+      <c r="T22" s="45">
+        <v>1</v>
+      </c>
+      <c r="U22" s="50">
+        <v>8</v>
+      </c>
+      <c r="V22" s="45">
+        <v>1</v>
+      </c>
       <c r="W22" s="45"/>
       <c r="X22" s="45"/>
       <c r="Y22" s="45"/>
@@ -3035,18 +3208,18 @@
       </c>
       <c r="AA22" s="6">
         <f t="shared" si="13"/>
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="AB22" s="6">
         <v>85</v>
       </c>
       <c r="AC22" s="47" t="str">
         <f t="shared" si="9"/>
-        <v>удовл</v>
+        <v>хорошо</v>
       </c>
       <c r="AD22" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>D+</v>
+        <v>C+</v>
       </c>
       <c r="AE22" s="47" t="str">
         <f t="shared" ref="AE22" si="14" xml:space="preserve"> IF(AA22&gt;=AB22,"Зачет","Не зачет")</f>
@@ -3056,44 +3229,44 @@
     <row r="23" spans="1:31" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
       <c r="B23" s="23"/>
-      <c r="C23" s="56" t="s">
+      <c r="C23" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="57"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="59" t="s">
+      <c r="D23" s="59"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="56" t="s">
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="61" t="s">
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="O23" s="62"/>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="62"/>
-      <c r="R23" s="64"/>
-      <c r="S23" s="61" t="s">
+      <c r="O23" s="64"/>
+      <c r="P23" s="64"/>
+      <c r="Q23" s="64"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="T23" s="62"/>
-      <c r="U23" s="64"/>
-      <c r="V23" s="61" t="s">
+      <c r="T23" s="64"/>
+      <c r="U23" s="66"/>
+      <c r="V23" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="W23" s="62"/>
-      <c r="X23" s="63"/>
-      <c r="Y23" s="54" t="s">
+      <c r="W23" s="64"/>
+      <c r="X23" s="65"/>
+      <c r="Y23" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="Z23" s="55"/>
+      <c r="Z23" s="57"/>
       <c r="AA23" s="6"/>
       <c r="AB23" s="5"/>
       <c r="AC23" s="7"/>
@@ -3491,7 +3664,7 @@
       <c r="AB36" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="q3d2iw4cEX1xeyS/21e28+lp9jshIYOvIJR7nblgB02RNQCWyceJXbNYYt+5gkcXQIpoESqbMKB8c8RLJlqOUg==" saltValue="+LTo7ldCnVrJGGiR2rWFHw==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="q72bQDjD/N3ZIoRUYnqyqtXy/ycYLVnnTF9G8ewfOI1u8C110qjX9YszYEs+tdSslr6NUNqswgjWr2PiOLK4Gg==" saltValue="FzQJPAy0TfBccb/PWsiGUg==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
   <sortState ref="A2:A22">
     <sortCondition ref="A2"/>
   </sortState>
@@ -3504,32 +3677,67 @@
     <mergeCell ref="N23:R23"/>
     <mergeCell ref="J23:M23"/>
   </mergeCells>
-  <conditionalFormatting sqref="C5:J11 D12:J20 C12:C21 R7:R10 S2:Z2 R3:Z5 C2:Q4 K5:Q5 K6:Z7">
-    <cfRule type="cellIs" dxfId="5" priority="15" operator="equal">
+  <conditionalFormatting sqref="C5:J11 D12:J20 C12:C21 R7:R10 S2:Z2 C2:Q4 K7:Y7 K5:Z6 R3:Y4">
+    <cfRule type="cellIs" dxfId="12" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S8:Z13 K8:Q13">
+  <conditionalFormatting sqref="S8:Z10 K8:Q13 S12:Z13 S11:T11 Y11">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14:Q19 S14:Z19 R12:R21">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:Z22 K20:Q20 D21:Q21 S20:Z21">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R11">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U11">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X11">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V11:W11">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:Q19 S14:Z19 R12:R21">
+  <conditionalFormatting sqref="Z11">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22:Z22 K20:Q20 D21:Q21 S20:Z21">
+  <conditionalFormatting sqref="Z7">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R11">
+  <conditionalFormatting sqref="Z4">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2">
+  <conditionalFormatting sqref="Z3">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/Баллы 2019.xlsx
+++ b/Баллы 2019.xlsx
@@ -1147,10 +1147,10 @@
   <dimension ref="A1:AE36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="23" topLeftCell="R24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="23" topLeftCell="S24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="U7" sqref="U7"/>
+      <selection pane="bottomRight" activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1343,14 +1343,16 @@
         <v>1</v>
       </c>
       <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
+      <c r="X2" s="3">
+        <v>11</v>
+      </c>
       <c r="Y2" s="3"/>
       <c r="Z2" s="24">
         <v>24</v>
       </c>
       <c r="AA2" s="27">
         <f t="shared" ref="AA2:AA7" si="0">SUM(C2:Z2)</f>
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="AB2" s="27">
         <v>85</v>
@@ -1361,7 +1363,7 @@
       </c>
       <c r="AD2" s="28" t="str">
         <f>IF(AA2&gt;=98,"А+",IF(AA2&gt;=93,"А",IF(AA2&gt;=90,"А-",IF(AA2&gt;=87,"B+",IF(AA2&gt;=83,"B",IF(AA2&gt;=80,"B-",IF(AA2&gt;=77,"C+",IF(AA2&gt;=73,"C",IF(AA2&gt;=70,"C-",IF(AA2&gt;=67,"D+",IF(AA2&gt;=63,"D",IF(AA2&gt;=60,"D-",IF(AA2&gt;=50,"E","Не удовл")))))))))))))</f>
-        <v>B+</v>
+        <v>А+</v>
       </c>
       <c r="AE2" s="28" t="str">
         <f xml:space="preserve"> IF(AA2&gt;=AB2,"Зачет","Не зачет")</f>
@@ -1623,17 +1625,21 @@
       <c r="T5" s="3">
         <v>0</v>
       </c>
-      <c r="U5" s="3"/>
+      <c r="U5" s="48">
+        <v>8</v>
+      </c>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
+      <c r="X5" s="3">
+        <v>0</v>
+      </c>
       <c r="Y5" s="3"/>
       <c r="Z5" s="24">
         <v>24</v>
       </c>
       <c r="AA5" s="6">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="AB5" s="6">
         <v>85</v>
@@ -1644,7 +1650,7 @@
       </c>
       <c r="AD5" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>D</v>
+        <v>C-</v>
       </c>
       <c r="AE5" s="19" t="str">
         <f xml:space="preserve"> IF(AA5&gt;=AB5,"Зачет","Не зачет")</f>
@@ -1719,7 +1725,9 @@
         <v>1</v>
       </c>
       <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
+      <c r="X6" s="3">
+        <v>0</v>
+      </c>
       <c r="Y6" s="3"/>
       <c r="Z6" s="24">
         <v>24</v>
@@ -1909,7 +1917,9 @@
         <v>1</v>
       </c>
       <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
       <c r="Y8" s="3"/>
       <c r="Z8" s="24">
         <v>24</v>
@@ -1999,30 +2009,36 @@
       <c r="V9" s="3">
         <v>1</v>
       </c>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
+      <c r="W9" s="3">
+        <v>1</v>
+      </c>
+      <c r="X9" s="3">
+        <v>11</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>1</v>
+      </c>
       <c r="Z9" s="24">
         <v>24</v>
       </c>
       <c r="AA9" s="6">
         <f t="shared" si="7"/>
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="AB9" s="6">
         <v>85</v>
       </c>
       <c r="AC9" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>хорошо</v>
+        <v>отл</v>
       </c>
       <c r="AD9" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>B</v>
+        <v>А</v>
       </c>
       <c r="AE9" s="4" t="str">
         <f xml:space="preserve"> IF(AA9&gt;=AB9,"Зачет","Не зачет")</f>
-        <v>Не зачет</v>
+        <v>Зачет</v>
       </c>
     </row>
     <row r="10" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2086,7 +2102,9 @@
       <c r="T10" s="3">
         <v>1</v>
       </c>
-      <c r="U10" s="3"/>
+      <c r="U10" s="3">
+        <v>11</v>
+      </c>
       <c r="V10" s="3">
         <v>1</v>
       </c>
@@ -2098,18 +2116,18 @@
       </c>
       <c r="AA10" s="6">
         <f t="shared" si="7"/>
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="AB10" s="6">
         <v>85</v>
       </c>
       <c r="AC10" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>удовл</v>
+        <v>хорошо</v>
       </c>
       <c r="AD10" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>C-</v>
+        <v>B-</v>
       </c>
       <c r="AE10" s="4" t="str">
         <f t="shared" ref="AE10" si="8" xml:space="preserve"> IF(AA10&gt;=AB10,"Зачет","Не зачет")</f>
@@ -2269,7 +2287,7 @@
         <v>12</v>
       </c>
       <c r="S12" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" s="39">
         <v>1</v>
@@ -2288,7 +2306,7 @@
       </c>
       <c r="AA12" s="6">
         <f t="shared" si="7"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AB12" s="6">
         <v>85</v>
@@ -2455,7 +2473,7 @@
         <v>12</v>
       </c>
       <c r="S14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="3">
         <v>1</v>
@@ -2474,7 +2492,7 @@
       </c>
       <c r="AA14" s="6">
         <f t="shared" si="7"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AB14" s="6">
         <v>85</v>
@@ -2489,7 +2507,7 @@
       </c>
       <c r="AE14" s="19" t="str">
         <f xml:space="preserve"> IF(AA14&gt;=AB14,"Зачет","Не зачет")</f>
-        <v>Не зачет</v>
+        <v>Зачет</v>
       </c>
     </row>
     <row r="15" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2923,8 +2941,8 @@
       <c r="T19" s="3">
         <v>0</v>
       </c>
-      <c r="U19" s="48">
-        <v>8</v>
+      <c r="U19" s="52">
+        <v>12</v>
       </c>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
@@ -2935,7 +2953,7 @@
       </c>
       <c r="AA19" s="6">
         <f t="shared" si="7"/>
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AB19" s="6">
         <v>85</v>
@@ -2946,7 +2964,7 @@
       </c>
       <c r="AD19" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>C</v>
+        <v>C+</v>
       </c>
       <c r="AE19" s="19" t="str">
         <f t="shared" si="12"/>
@@ -3014,7 +3032,9 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-      <c r="U20" s="3"/>
+      <c r="U20" s="3">
+        <v>11</v>
+      </c>
       <c r="V20" s="3">
         <v>1</v>
       </c>
@@ -3026,18 +3046,18 @@
       </c>
       <c r="AA20" s="6">
         <f t="shared" ref="AA20:AA22" si="13">SUM(C20:Z20)</f>
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="AB20" s="6">
         <v>85</v>
       </c>
       <c r="AC20" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>удовл</v>
+        <v>хорошо</v>
       </c>
       <c r="AD20" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>D+</v>
+        <v>C+</v>
       </c>
       <c r="AE20" s="19" t="str">
         <f xml:space="preserve"> IF(AA20&gt;=AB20,"Зачет","Не зачет")</f>
@@ -3664,7 +3684,7 @@
       <c r="AB36" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="q72bQDjD/N3ZIoRUYnqyqtXy/ycYLVnnTF9G8ewfOI1u8C110qjX9YszYEs+tdSslr6NUNqswgjWr2PiOLK4Gg==" saltValue="FzQJPAy0TfBccb/PWsiGUg==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="TIO0Z8efd6ejxgldrE9kOM5S0GBF7p+F6kKnt9gkyThXgRnRP2FAemvDi79r+9p+bU1jQp0Zkzh8YTAEAWW7lQ==" saltValue="NlxY1tzPqvANPA7d8wm44g==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
   <sortState ref="A2:A22">
     <sortCondition ref="A2"/>
   </sortState>

--- a/Баллы 2019.xlsx
+++ b/Баллы 2019.xlsx
@@ -1150,7 +1150,7 @@
       <pane xSplit="2" ySplit="23" topLeftCell="S24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="W26" sqref="W26"/>
+      <selection pane="bottomRight" activeCell="W30" sqref="W30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3684,7 +3684,7 @@
       <c r="AB36" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="TIO0Z8efd6ejxgldrE9kOM5S0GBF7p+F6kKnt9gkyThXgRnRP2FAemvDi79r+9p+bU1jQp0Zkzh8YTAEAWW7lQ==" saltValue="NlxY1tzPqvANPA7d8wm44g==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Bx1ienPd0RzMju5RXFUAZnvfAJi5BV0v0w42oFcuad/fDdVpQOX+Ge6QSNsOL+q7v0koZTfv/9T5A6tPYUpj8g==" saltValue="83XbBph63E34jQgV5lZLGA==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
   <sortState ref="A2:A22">
     <sortCondition ref="A2"/>
   </sortState>

--- a/Баллы 2019.xlsx
+++ b/Баллы 2019.xlsx
@@ -566,7 +566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -747,6 +747,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1150,7 +1156,7 @@
       <pane xSplit="2" ySplit="23" topLeftCell="S24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="W30" sqref="W30"/>
+      <selection pane="bottomRight" activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1342,7 +1348,9 @@
       <c r="V2" s="3">
         <v>1</v>
       </c>
-      <c r="W2" s="3"/>
+      <c r="W2" s="3">
+        <v>1</v>
+      </c>
       <c r="X2" s="3">
         <v>11</v>
       </c>
@@ -1352,7 +1360,7 @@
       </c>
       <c r="AA2" s="27">
         <f t="shared" ref="AA2:AA7" si="0">SUM(C2:Z2)</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AB2" s="27">
         <v>85</v>
@@ -1628,8 +1636,12 @@
       <c r="U5" s="48">
         <v>8</v>
       </c>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
+      <c r="V5" s="3">
+        <v>0</v>
+      </c>
+      <c r="W5" s="3">
+        <v>0</v>
+      </c>
       <c r="X5" s="3">
         <v>0</v>
       </c>
@@ -1724,7 +1736,9 @@
       <c r="V6" s="3">
         <v>1</v>
       </c>
-      <c r="W6" s="3"/>
+      <c r="W6" s="3">
+        <v>1</v>
+      </c>
       <c r="X6" s="3">
         <v>0</v>
       </c>
@@ -1734,7 +1748,7 @@
       </c>
       <c r="AA6" s="6">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AB6" s="6">
         <v>85</v>
@@ -1917,8 +1931,8 @@
         <v>1</v>
       </c>
       <c r="W8" s="3"/>
-      <c r="X8" s="3">
-        <v>0</v>
+      <c r="X8" s="48">
+        <v>7</v>
       </c>
       <c r="Y8" s="3"/>
       <c r="Z8" s="24">
@@ -1926,22 +1940,22 @@
       </c>
       <c r="AA8" s="6">
         <f t="shared" ref="AA8:AA19" si="7">SUM(C8:Z8)</f>
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AB8" s="6">
         <v>85</v>
       </c>
       <c r="AC8" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>хорошо</v>
+        <v>отл</v>
       </c>
       <c r="AD8" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>B-</v>
+        <v>B+</v>
       </c>
       <c r="AE8" s="19" t="str">
         <f xml:space="preserve"> IF(AA8&gt;=AB8,"Зачет","Не зачет")</f>
-        <v>Не зачет</v>
+        <v>Зачет</v>
       </c>
     </row>
     <row r="9" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2009,21 +2023,17 @@
       <c r="V9" s="3">
         <v>1</v>
       </c>
-      <c r="W9" s="3">
-        <v>1</v>
-      </c>
+      <c r="W9" s="3"/>
       <c r="X9" s="3">
         <v>11</v>
       </c>
-      <c r="Y9" s="3">
-        <v>1</v>
-      </c>
+      <c r="Y9" s="3"/>
       <c r="Z9" s="24">
         <v>24</v>
       </c>
       <c r="AA9" s="6">
         <f t="shared" si="7"/>
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AB9" s="6">
         <v>85</v>
@@ -2108,15 +2118,19 @@
       <c r="V10" s="3">
         <v>1</v>
       </c>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
+      <c r="W10" s="3">
+        <v>1</v>
+      </c>
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
       <c r="Y10" s="3"/>
       <c r="Z10" s="24">
         <v>24</v>
       </c>
       <c r="AA10" s="6">
         <f t="shared" si="7"/>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB10" s="6">
         <v>85</v>
@@ -2298,26 +2312,30 @@
       <c r="V12" s="39">
         <v>1</v>
       </c>
-      <c r="W12" s="39"/>
-      <c r="X12" s="39"/>
+      <c r="W12" s="39">
+        <v>1</v>
+      </c>
+      <c r="X12" s="68">
+        <v>10</v>
+      </c>
       <c r="Y12" s="39"/>
       <c r="Z12" s="40">
         <v>24</v>
       </c>
       <c r="AA12" s="6">
         <f t="shared" si="7"/>
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="AB12" s="6">
         <v>85</v>
       </c>
       <c r="AC12" s="19" t="str">
         <f t="shared" ref="AC12:AC22" si="9">IF(AA12&gt;=87,"отл",IF(AA12&gt;=73,"хорошо",IF(AA12&gt;=50,"удовл","Не удовл")))</f>
-        <v>хорошо</v>
+        <v>отл</v>
       </c>
       <c r="AD12" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>B</v>
+        <v>А</v>
       </c>
       <c r="AE12" s="19" t="str">
         <f t="shared" ref="AE12:AE13" si="10" xml:space="preserve"> IF(AA12&gt;=AB12,"Зачет","Не зачет")</f>
@@ -2391,26 +2409,30 @@
       <c r="V13" s="3">
         <v>1</v>
       </c>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
+      <c r="W13" s="3">
+        <v>1</v>
+      </c>
+      <c r="X13" s="3">
+        <v>11</v>
+      </c>
       <c r="Y13" s="3"/>
       <c r="Z13" s="24">
         <v>24</v>
       </c>
       <c r="AA13" s="6">
         <f t="shared" si="7"/>
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AB13" s="6">
         <v>85</v>
       </c>
       <c r="AC13" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>хорошо</v>
+        <v>отл</v>
       </c>
       <c r="AD13" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>B</v>
+        <v>А+</v>
       </c>
       <c r="AE13" s="19" t="str">
         <f t="shared" si="10"/>
@@ -2484,26 +2506,30 @@
       <c r="V14" s="3">
         <v>1</v>
       </c>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
+      <c r="W14" s="3">
+        <v>1</v>
+      </c>
+      <c r="X14" s="48">
+        <v>7</v>
+      </c>
       <c r="Y14" s="3"/>
       <c r="Z14" s="24">
         <v>24</v>
       </c>
       <c r="AA14" s="6">
         <f t="shared" si="7"/>
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="AB14" s="6">
         <v>85</v>
       </c>
       <c r="AC14" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>хорошо</v>
+        <v>отл</v>
       </c>
       <c r="AD14" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>B</v>
+        <v>А</v>
       </c>
       <c r="AE14" s="19" t="str">
         <f xml:space="preserve"> IF(AA14&gt;=AB14,"Зачет","Не зачет")</f>
@@ -2571,30 +2597,36 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-      <c r="U15" s="3"/>
+      <c r="U15" s="3">
+        <v>10</v>
+      </c>
       <c r="V15" s="3">
         <v>1</v>
       </c>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
+      <c r="W15" s="3">
+        <v>1</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
       <c r="Y15" s="3"/>
       <c r="Z15" s="24">
         <v>24</v>
       </c>
       <c r="AA15" s="6">
         <f t="shared" si="7"/>
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="AB15" s="6">
         <v>85</v>
       </c>
       <c r="AC15" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>удовл</v>
+        <v>хорошо</v>
       </c>
       <c r="AD15" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="AE15" s="4" t="str">
         <f xml:space="preserve"> IF(AA15&gt;=AB15,"Зачет","Не зачет")</f>
@@ -2668,15 +2700,19 @@
       <c r="V16" s="3">
         <v>1</v>
       </c>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
+      <c r="W16" s="3">
+        <v>1</v>
+      </c>
+      <c r="X16" s="48">
+        <v>7</v>
+      </c>
       <c r="Y16" s="3"/>
       <c r="Z16" s="24">
         <v>24</v>
       </c>
       <c r="AA16" s="6">
         <f t="shared" si="7"/>
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AB16" s="6">
         <v>85</v>
@@ -2687,7 +2723,7 @@
       </c>
       <c r="AD16" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="AE16" s="4" t="str">
         <f t="shared" ref="AE16" si="11" xml:space="preserve"> IF(AA16&gt;=AB16,"Зачет","Не зачет")</f>
@@ -2761,15 +2797,19 @@
       <c r="V17" s="3">
         <v>1</v>
       </c>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
+      <c r="W17" s="3">
+        <v>1</v>
+      </c>
+      <c r="X17" s="3">
+        <v>11</v>
+      </c>
       <c r="Y17" s="3"/>
       <c r="Z17" s="24">
         <v>24</v>
       </c>
       <c r="AA17" s="6">
         <f t="shared" si="7"/>
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="AB17" s="6">
         <v>85</v>
@@ -2780,7 +2820,7 @@
       </c>
       <c r="AD17" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>B+</v>
+        <v>А+</v>
       </c>
       <c r="AE17" s="19" t="str">
         <f xml:space="preserve"> IF(AA17&gt;=AB17,"Зачет","Не зачет")</f>
@@ -2854,26 +2894,30 @@
       <c r="V18" s="3">
         <v>1</v>
       </c>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="48">
+        <v>7</v>
+      </c>
       <c r="Y18" s="3"/>
       <c r="Z18" s="24">
         <v>24</v>
       </c>
       <c r="AA18" s="6">
         <f t="shared" si="7"/>
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="AB18" s="6">
         <v>85</v>
       </c>
       <c r="AC18" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>хорошо</v>
+        <v>отл</v>
       </c>
       <c r="AD18" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>B</v>
+        <v>А</v>
       </c>
       <c r="AE18" s="19" t="str">
         <f t="shared" ref="AE18:AE19" si="12" xml:space="preserve"> IF(AA18&gt;=AB18,"Зачет","Не зачет")</f>
@@ -2941,19 +2985,23 @@
       <c r="T19" s="3">
         <v>0</v>
       </c>
-      <c r="U19" s="52">
+      <c r="U19" s="3">
         <v>12</v>
       </c>
       <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
+      <c r="W19" s="3">
+        <v>1</v>
+      </c>
+      <c r="X19" s="48">
+        <v>7</v>
+      </c>
       <c r="Y19" s="3"/>
       <c r="Z19" s="24">
         <v>24</v>
       </c>
       <c r="AA19" s="6">
         <f t="shared" si="7"/>
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AB19" s="6">
         <v>85</v>
@@ -2964,11 +3012,11 @@
       </c>
       <c r="AD19" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>C+</v>
+        <v>B</v>
       </c>
       <c r="AE19" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>Не зачет</v>
+        <v>Зачет</v>
       </c>
     </row>
     <row r="20" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3038,30 +3086,34 @@
       <c r="V20" s="3">
         <v>1</v>
       </c>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
+      <c r="W20" s="3">
+        <v>1</v>
+      </c>
+      <c r="X20" s="48">
+        <v>7</v>
+      </c>
       <c r="Y20" s="3"/>
       <c r="Z20" s="24">
         <v>24</v>
       </c>
       <c r="AA20" s="6">
         <f t="shared" ref="AA20:AA22" si="13">SUM(C20:Z20)</f>
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AB20" s="6">
         <v>85</v>
       </c>
       <c r="AC20" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>хорошо</v>
+        <v>отл</v>
       </c>
       <c r="AD20" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>C+</v>
+        <v>B+</v>
       </c>
       <c r="AE20" s="19" t="str">
         <f xml:space="preserve"> IF(AA20&gt;=AB20,"Зачет","Не зачет")</f>
-        <v>Не зачет</v>
+        <v>Зачет</v>
       </c>
     </row>
     <row r="21" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3125,28 +3177,34 @@
       <c r="T21" s="3">
         <v>1</v>
       </c>
-      <c r="U21" s="3"/>
+      <c r="U21" s="48">
+        <v>8</v>
+      </c>
       <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
+      <c r="W21" s="3">
+        <v>1</v>
+      </c>
+      <c r="X21" s="48">
+        <v>7</v>
+      </c>
       <c r="Y21" s="3"/>
       <c r="Z21" s="24">
         <v>24</v>
       </c>
       <c r="AA21" s="6">
         <f t="shared" si="13"/>
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="AB21" s="6">
         <v>85</v>
       </c>
       <c r="AC21" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>удовл</v>
+        <v>хорошо</v>
       </c>
       <c r="AD21" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>D</v>
+        <v>B-</v>
       </c>
       <c r="AE21" s="4" t="str">
         <f xml:space="preserve"> IF(AA21&gt;=AB21,"Зачет","Не зачет")</f>
@@ -3214,36 +3272,40 @@
       <c r="T22" s="45">
         <v>1</v>
       </c>
-      <c r="U22" s="50">
-        <v>8</v>
+      <c r="U22" s="67">
+        <v>11</v>
       </c>
       <c r="V22" s="45">
         <v>1</v>
       </c>
-      <c r="W22" s="45"/>
-      <c r="X22" s="45"/>
+      <c r="W22" s="45">
+        <v>1</v>
+      </c>
+      <c r="X22" s="45">
+        <v>11</v>
+      </c>
       <c r="Y22" s="45"/>
       <c r="Z22" s="46">
         <v>24</v>
       </c>
       <c r="AA22" s="6">
         <f t="shared" si="13"/>
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="AB22" s="6">
         <v>85</v>
       </c>
       <c r="AC22" s="47" t="str">
         <f t="shared" si="9"/>
-        <v>хорошо</v>
+        <v>отл</v>
       </c>
       <c r="AD22" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>C+</v>
+        <v>А</v>
       </c>
       <c r="AE22" s="47" t="str">
         <f t="shared" ref="AE22" si="14" xml:space="preserve"> IF(AA22&gt;=AB22,"Зачет","Не зачет")</f>
-        <v>Не зачет</v>
+        <v>Зачет</v>
       </c>
     </row>
     <row r="23" spans="1:31" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3684,7 +3746,7 @@
       <c r="AB36" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Bx1ienPd0RzMju5RXFUAZnvfAJi5BV0v0w42oFcuad/fDdVpQOX+Ge6QSNsOL+q7v0koZTfv/9T5A6tPYUpj8g==" saltValue="83XbBph63E34jQgV5lZLGA==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="EgX3pBH+vSZlDbA9Arrzq9ww3fzRCZ7C9LY4PNek7SG3zAuJo3TEZ/HcSIa0M2UdwnkLhGFiDSaRsji2lptKOA==" saltValue="K/TvAUrZ3Bnp1NaYRTAUCQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
   <sortState ref="A2:A22">
     <sortCondition ref="A2"/>
   </sortState>
@@ -3707,7 +3769,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:Q19 S14:Z19 R12:R21">
+  <conditionalFormatting sqref="K14:Q19 R12:R21 S14:Z19">
     <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/Баллы 2019.xlsx
+++ b/Баллы 2019.xlsx
@@ -189,7 +189,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,6 +226,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="28">
     <border>
@@ -566,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -753,6 +759,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1153,10 +1162,10 @@
   <dimension ref="A1:AE36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="23" topLeftCell="S24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="23" topLeftCell="U24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="X10" sqref="X10"/>
+      <selection pane="bottomRight" activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1740,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="X6" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y6" s="3"/>
       <c r="Z6" s="24">
@@ -1748,18 +1757,18 @@
       </c>
       <c r="AA6" s="6">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="AB6" s="6">
         <v>85</v>
       </c>
       <c r="AC6" s="4" t="str">
         <f t="shared" ref="AC6:AC11" si="5">IF(AA6&gt;=87,"отл",IF(AA6&gt;=73,"хорошо",IF(AA6&gt;=50,"удовл","Не удовл")))</f>
-        <v>хорошо</v>
+        <v>отл</v>
       </c>
       <c r="AD6" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>B</v>
+        <v>А</v>
       </c>
       <c r="AE6" s="19" t="str">
         <f t="shared" ref="AE6:AE7" si="6" xml:space="preserve"> IF(AA6&gt;=AB6,"Зачет","Не зачет")</f>
@@ -1930,7 +1939,9 @@
       <c r="V8" s="3">
         <v>1</v>
       </c>
-      <c r="W8" s="3"/>
+      <c r="W8" s="3">
+        <v>1</v>
+      </c>
       <c r="X8" s="48">
         <v>7</v>
       </c>
@@ -1940,7 +1951,7 @@
       </c>
       <c r="AA8" s="6">
         <f t="shared" ref="AA8:AA19" si="7">SUM(C8:Z8)</f>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AB8" s="6">
         <v>85</v>
@@ -1951,7 +1962,7 @@
       </c>
       <c r="AD8" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>B+</v>
+        <v>А-</v>
       </c>
       <c r="AE8" s="19" t="str">
         <f xml:space="preserve"> IF(AA8&gt;=AB8,"Зачет","Не зачет")</f>
@@ -2023,7 +2034,9 @@
       <c r="V9" s="3">
         <v>1</v>
       </c>
-      <c r="W9" s="3"/>
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
       <c r="X9" s="3">
         <v>11</v>
       </c>
@@ -2295,7 +2308,7 @@
         <v>1</v>
       </c>
       <c r="Q12" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="3">
         <v>12</v>
@@ -2324,7 +2337,7 @@
       </c>
       <c r="AA12" s="6">
         <f t="shared" si="7"/>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB12" s="6">
         <v>85</v>
@@ -2335,7 +2348,7 @@
       </c>
       <c r="AD12" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>А</v>
+        <v>А+</v>
       </c>
       <c r="AE12" s="19" t="str">
         <f t="shared" ref="AE12:AE13" si="10" xml:space="preserve"> IF(AA12&gt;=AB12,"Зачет","Не зачет")</f>
@@ -2419,7 +2432,7 @@
       <c r="Z13" s="24">
         <v>24</v>
       </c>
-      <c r="AA13" s="6">
+      <c r="AA13" s="69">
         <f t="shared" si="7"/>
         <v>98</v>
       </c>
@@ -2516,7 +2529,7 @@
       <c r="Z14" s="24">
         <v>24</v>
       </c>
-      <c r="AA14" s="6">
+      <c r="AA14" s="69">
         <f t="shared" si="7"/>
         <v>93</v>
       </c>
@@ -2703,31 +2716,31 @@
       <c r="W16" s="3">
         <v>1</v>
       </c>
-      <c r="X16" s="48">
-        <v>7</v>
+      <c r="X16" s="3">
+        <v>11</v>
       </c>
       <c r="Y16" s="3"/>
       <c r="Z16" s="24">
         <v>24</v>
       </c>
-      <c r="AA16" s="6">
+      <c r="AA16" s="69">
         <f t="shared" si="7"/>
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AB16" s="6">
         <v>85</v>
       </c>
       <c r="AC16" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>хорошо</v>
+        <v>отл</v>
       </c>
       <c r="AD16" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="AE16" s="4" t="str">
         <f t="shared" ref="AE16" si="11" xml:space="preserve"> IF(AA16&gt;=AB16,"Зачет","Не зачет")</f>
-        <v>Не зачет</v>
+        <v>Зачет</v>
       </c>
     </row>
     <row r="17" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2807,7 +2820,7 @@
       <c r="Z17" s="24">
         <v>24</v>
       </c>
-      <c r="AA17" s="6">
+      <c r="AA17" s="69">
         <f t="shared" si="7"/>
         <v>99</v>
       </c>
@@ -2992,27 +3005,27 @@
       <c r="W19" s="3">
         <v>1</v>
       </c>
-      <c r="X19" s="48">
-        <v>7</v>
+      <c r="X19" s="3">
+        <v>11</v>
       </c>
       <c r="Y19" s="3"/>
       <c r="Z19" s="24">
         <v>24</v>
       </c>
-      <c r="AA19" s="6">
+      <c r="AA19" s="69">
         <f t="shared" si="7"/>
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AB19" s="6">
         <v>85</v>
       </c>
       <c r="AC19" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>хорошо</v>
+        <v>отл</v>
       </c>
       <c r="AD19" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>B</v>
+        <v>А-</v>
       </c>
       <c r="AE19" s="19" t="str">
         <f t="shared" si="12"/>
@@ -3288,7 +3301,7 @@
       <c r="Z22" s="46">
         <v>24</v>
       </c>
-      <c r="AA22" s="6">
+      <c r="AA22" s="69">
         <f t="shared" si="13"/>
         <v>94</v>
       </c>
@@ -3746,7 +3759,7 @@
       <c r="AB36" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EgX3pBH+vSZlDbA9Arrzq9ww3fzRCZ7C9LY4PNek7SG3zAuJo3TEZ/HcSIa0M2UdwnkLhGFiDSaRsji2lptKOA==" saltValue="K/TvAUrZ3Bnp1NaYRTAUCQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="YDAGUp0STHncHY/oX+4mPgKQcvj9nJABU+gfHn4M59NR5hcf8+fSWeRETf0r2NusoT2dl3yeE6lPcdyQeQCuIA==" saltValue="WNPJ8H8qdc7tdaDDFSmoNg==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
   <sortState ref="A2:A22">
     <sortCondition ref="A2"/>
   </sortState>

--- a/Баллы 2019.xlsx
+++ b/Баллы 2019.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Leon\NSTU\Проектирование систем\Student 2019\trunk\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="90" windowWidth="14880" windowHeight="7875"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -721,6 +716,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -753,15 +757,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -915,7 +910,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -950,7 +945,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1165,7 +1160,7 @@
       <pane xSplit="2" ySplit="23" topLeftCell="U24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="X13" sqref="X13"/>
+      <selection pane="bottomRight" activeCell="Y24" sqref="Y24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1642,8 +1637,8 @@
       <c r="T5" s="3">
         <v>0</v>
       </c>
-      <c r="U5" s="48">
-        <v>8</v>
+      <c r="U5" s="52">
+        <v>10</v>
       </c>
       <c r="V5" s="3">
         <v>0</v>
@@ -1651,8 +1646,8 @@
       <c r="W5" s="3">
         <v>0</v>
       </c>
-      <c r="X5" s="3">
-        <v>0</v>
+      <c r="X5" s="52">
+        <v>10</v>
       </c>
       <c r="Y5" s="3"/>
       <c r="Z5" s="24">
@@ -1660,18 +1655,18 @@
       </c>
       <c r="AA5" s="6">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="AB5" s="6">
         <v>85</v>
       </c>
       <c r="AC5" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>удовл</v>
+        <v>хорошо</v>
       </c>
       <c r="AD5" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>C-</v>
+        <v>B</v>
       </c>
       <c r="AE5" s="19" t="str">
         <f xml:space="preserve"> IF(AA5&gt;=AB5,"Зачет","Не зачет")</f>
@@ -2135,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="X10" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y10" s="3"/>
       <c r="Z10" s="24">
@@ -2143,22 +2138,22 @@
       </c>
       <c r="AA10" s="6">
         <f t="shared" si="7"/>
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AB10" s="6">
         <v>85</v>
       </c>
       <c r="AC10" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>хорошо</v>
+        <v>отл</v>
       </c>
       <c r="AD10" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>B-</v>
+        <v>А-</v>
       </c>
       <c r="AE10" s="4" t="str">
         <f t="shared" ref="AE10" si="8" xml:space="preserve"> IF(AA10&gt;=AB10,"Зачет","Не зачет")</f>
-        <v>Не зачет</v>
+        <v>Зачет</v>
       </c>
     </row>
     <row r="11" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2328,7 +2323,7 @@
       <c r="W12" s="39">
         <v>1</v>
       </c>
-      <c r="X12" s="68">
+      <c r="X12" s="57">
         <v>10</v>
       </c>
       <c r="Y12" s="39"/>
@@ -2432,7 +2427,7 @@
       <c r="Z13" s="24">
         <v>24</v>
       </c>
-      <c r="AA13" s="69">
+      <c r="AA13" s="58">
         <f t="shared" si="7"/>
         <v>98</v>
       </c>
@@ -2529,7 +2524,7 @@
       <c r="Z14" s="24">
         <v>24</v>
       </c>
-      <c r="AA14" s="69">
+      <c r="AA14" s="58">
         <f t="shared" si="7"/>
         <v>93</v>
       </c>
@@ -2723,7 +2718,7 @@
       <c r="Z16" s="24">
         <v>24</v>
       </c>
-      <c r="AA16" s="69">
+      <c r="AA16" s="58">
         <f t="shared" si="7"/>
         <v>88</v>
       </c>
@@ -2820,7 +2815,7 @@
       <c r="Z17" s="24">
         <v>24</v>
       </c>
-      <c r="AA17" s="69">
+      <c r="AA17" s="58">
         <f t="shared" si="7"/>
         <v>99</v>
       </c>
@@ -3012,7 +3007,7 @@
       <c r="Z19" s="24">
         <v>24</v>
       </c>
-      <c r="AA19" s="69">
+      <c r="AA19" s="58">
         <f t="shared" si="7"/>
         <v>90</v>
       </c>
@@ -3285,7 +3280,7 @@
       <c r="T22" s="45">
         <v>1</v>
       </c>
-      <c r="U22" s="67">
+      <c r="U22" s="56">
         <v>11</v>
       </c>
       <c r="V22" s="45">
@@ -3301,7 +3296,7 @@
       <c r="Z22" s="46">
         <v>24</v>
       </c>
-      <c r="AA22" s="69">
+      <c r="AA22" s="58">
         <f t="shared" si="13"/>
         <v>94</v>
       </c>
@@ -3324,44 +3319,44 @@
     <row r="23" spans="1:31" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
       <c r="B23" s="23"/>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="59"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="61" t="s">
+      <c r="D23" s="62"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="58" t="s">
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="63" t="s">
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="O23" s="64"/>
-      <c r="P23" s="64"/>
-      <c r="Q23" s="64"/>
-      <c r="R23" s="66"/>
-      <c r="S23" s="63" t="s">
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="69"/>
+      <c r="S23" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="T23" s="64"/>
-      <c r="U23" s="66"/>
-      <c r="V23" s="63" t="s">
+      <c r="T23" s="67"/>
+      <c r="U23" s="69"/>
+      <c r="V23" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="W23" s="64"/>
-      <c r="X23" s="65"/>
-      <c r="Y23" s="56" t="s">
+      <c r="W23" s="67"/>
+      <c r="X23" s="68"/>
+      <c r="Y23" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="Z23" s="57"/>
+      <c r="Z23" s="60"/>
       <c r="AA23" s="6"/>
       <c r="AB23" s="5"/>
       <c r="AC23" s="7"/>
@@ -3759,7 +3754,7 @@
       <c r="AB36" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="YDAGUp0STHncHY/oX+4mPgKQcvj9nJABU+gfHn4M59NR5hcf8+fSWeRETf0r2NusoT2dl3yeE6lPcdyQeQCuIA==" saltValue="WNPJ8H8qdc7tdaDDFSmoNg==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
+  <sheetProtection password="9DFC" sheet="1" objects="1" scenarios="1" sort="0"/>
   <sortState ref="A2:A22">
     <sortCondition ref="A2"/>
   </sortState>
